--- a/Resultados/ViajesCompleta.xlsx
+++ b/Resultados/ViajesCompleta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williz/Desktop/ModelosED/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA541941-ED8B-034F-9835-88A7B90FB453}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDFA44B-1623-E545-94CD-6AF04FFA4CD5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7559,14 +7559,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -7677,17 +7677,16 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7695,82 +7694,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF548235"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF548235"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7985,7 +7920,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -8111,7 +8046,7 @@
       <c r="A2" s="50">
         <v>5</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="79" t="s">
         <v>166</v>
       </c>
       <c r="C2" s="52" t="s">
@@ -8160,7 +8095,9 @@
       <c r="R2" s="11">
         <v>14</v>
       </c>
-      <c r="S2" s="11"/>
+      <c r="S2" s="11">
+        <v>10</v>
+      </c>
       <c r="T2" s="11">
         <v>0</v>
       </c>
@@ -8170,7 +8107,9 @@
       <c r="V2" s="11">
         <v>1</v>
       </c>
-      <c r="W2" s="11"/>
+      <c r="W2" s="11">
+        <v>0</v>
+      </c>
       <c r="X2" s="11">
         <v>0</v>
       </c>
@@ -8180,7 +8119,9 @@
       <c r="Z2" s="11">
         <v>0</v>
       </c>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="11">
+        <v>0</v>
+      </c>
       <c r="AB2" s="11">
         <v>2</v>
       </c>
@@ -8190,13 +8131,15 @@
       <c r="AD2" s="11">
         <v>2</v>
       </c>
-      <c r="AE2" s="14"/>
+      <c r="AE2" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>6</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="66" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -8245,7 +8188,9 @@
       <c r="R3" s="11">
         <v>14</v>
       </c>
-      <c r="S3" s="11"/>
+      <c r="S3" s="11">
+        <v>14</v>
+      </c>
       <c r="T3" s="11">
         <v>1</v>
       </c>
@@ -8255,7 +8200,9 @@
       <c r="V3" s="11">
         <v>2</v>
       </c>
-      <c r="W3" s="11"/>
+      <c r="W3" s="11">
+        <v>1</v>
+      </c>
       <c r="X3" s="11">
         <v>3</v>
       </c>
@@ -8265,7 +8212,9 @@
       <c r="Z3" s="11">
         <v>0</v>
       </c>
-      <c r="AA3" s="11"/>
+      <c r="AA3" s="11">
+        <v>5</v>
+      </c>
       <c r="AB3" s="11">
         <v>0</v>
       </c>
@@ -8275,7 +8224,9 @@
       <c r="AD3" s="11">
         <v>0</v>
       </c>
-      <c r="AE3" s="14"/>
+      <c r="AE3" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="50">
@@ -8615,7 +8566,7 @@
       <c r="A8" s="50">
         <v>17</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="69" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="52" t="s">
@@ -9171,7 +9122,7 @@
       <c r="Q14" s="11">
         <v>11</v>
       </c>
-      <c r="R14" s="71">
+      <c r="R14" s="70">
         <v>12</v>
       </c>
       <c r="S14" s="11"/>
@@ -9635,7 +9586,7 @@
       <c r="A20" s="36">
         <v>302</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="67" t="s">
         <v>1980</v>
       </c>
       <c r="C20" s="39" t="s">
@@ -9708,7 +9659,9 @@
       <c r="Z20" s="12">
         <v>2</v>
       </c>
-      <c r="AA20" s="12"/>
+      <c r="AA20" s="12">
+        <v>2</v>
+      </c>
       <c r="AB20" s="12">
         <v>2</v>
       </c>
@@ -9718,13 +9671,15 @@
       <c r="AD20" s="12">
         <v>2</v>
       </c>
-      <c r="AE20" s="14"/>
+      <c r="AE20" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:31" ht="15.75" customHeight="1">
       <c r="A21" s="50">
         <v>304</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="68" t="s">
         <v>1992</v>
       </c>
       <c r="C21" s="52" t="s">
@@ -9797,7 +9752,9 @@
       <c r="Z21" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AA21" s="12"/>
+      <c r="AA21" s="12">
+        <v>1</v>
+      </c>
       <c r="AB21" s="12">
         <v>2</v>
       </c>
@@ -9807,13 +9764,15 @@
       <c r="AD21" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AE21" s="14"/>
+      <c r="AE21" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:31" ht="15.75" customHeight="1">
       <c r="A22" s="50">
         <v>305</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="68" t="s">
         <v>1998</v>
       </c>
       <c r="C22" s="52" t="s">
@@ -9886,7 +9845,9 @@
       <c r="Z22" s="12">
         <v>0</v>
       </c>
-      <c r="AA22" s="12"/>
+      <c r="AA22" s="12">
+        <v>0</v>
+      </c>
       <c r="AB22" s="12">
         <v>1</v>
       </c>
@@ -9896,13 +9857,15 @@
       <c r="AD22" s="12">
         <v>1</v>
       </c>
-      <c r="AE22" s="14"/>
+      <c r="AE22" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1">
       <c r="A23" s="50">
         <v>308</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="68" t="s">
         <v>2016</v>
       </c>
       <c r="C23" s="52" t="s">
@@ -9975,7 +9938,9 @@
       <c r="Z23" s="12">
         <v>1</v>
       </c>
-      <c r="AA23" s="12"/>
+      <c r="AA23" s="12">
+        <v>0</v>
+      </c>
       <c r="AB23" s="12">
         <v>1</v>
       </c>
@@ -9985,13 +9950,15 @@
       <c r="AD23" s="12">
         <v>2</v>
       </c>
-      <c r="AE23" s="14"/>
+      <c r="AE23" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1">
       <c r="A24" s="50">
         <v>309</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="68" t="s">
         <v>2022</v>
       </c>
       <c r="C24" s="52" t="s">
@@ -10064,7 +10031,9 @@
       <c r="Z24" s="12">
         <v>0</v>
       </c>
-      <c r="AA24" s="12"/>
+      <c r="AA24" s="12">
+        <v>0</v>
+      </c>
       <c r="AB24" s="12">
         <v>1</v>
       </c>
@@ -10074,13 +10043,15 @@
       <c r="AD24" s="12">
         <v>2</v>
       </c>
-      <c r="AE24" s="14"/>
+      <c r="AE24" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1">
       <c r="A25" s="1">
         <v>310</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="66" t="s">
         <v>2028</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -10153,7 +10124,9 @@
       <c r="Z25" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AA25" s="12"/>
+      <c r="AA25" s="12">
+        <v>0</v>
+      </c>
       <c r="AB25" s="12">
         <v>0</v>
       </c>
@@ -10163,13 +10136,15 @@
       <c r="AD25" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="AE25" s="14"/>
+      <c r="AE25" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1">
       <c r="A26" s="1">
         <v>314</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="66" t="s">
         <v>2052</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -10242,7 +10217,9 @@
       <c r="Z26" s="12">
         <v>1</v>
       </c>
-      <c r="AA26" s="12"/>
+      <c r="AA26" s="12">
+        <v>1</v>
+      </c>
       <c r="AB26" s="12">
         <v>1</v>
       </c>
@@ -10252,13 +10229,15 @@
       <c r="AD26" s="12">
         <v>1</v>
       </c>
-      <c r="AE26" s="14"/>
+      <c r="AE26" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1">
       <c r="A27" s="1">
         <v>315</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="66" t="s">
         <v>2058</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -10331,7 +10310,9 @@
       <c r="Z27" s="12">
         <v>0</v>
       </c>
-      <c r="AA27" s="12"/>
+      <c r="AA27" s="12">
+        <v>1</v>
+      </c>
       <c r="AB27" s="12">
         <v>2</v>
       </c>
@@ -10341,13 +10322,15 @@
       <c r="AD27" s="12">
         <v>2</v>
       </c>
-      <c r="AE27" s="14"/>
+      <c r="AE27" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1">
       <c r="A28" s="50">
         <v>316</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="68" t="s">
         <v>2064</v>
       </c>
       <c r="C28" s="52" t="s">
@@ -10420,7 +10403,9 @@
       <c r="Z28" s="12">
         <v>0</v>
       </c>
-      <c r="AA28" s="12"/>
+      <c r="AA28" s="12">
+        <v>2</v>
+      </c>
       <c r="AB28" s="12">
         <v>0</v>
       </c>
@@ -10430,13 +10415,15 @@
       <c r="AD28" s="12">
         <v>2</v>
       </c>
-      <c r="AE28" s="14"/>
+      <c r="AE28" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1">
       <c r="A29" s="50">
         <v>317</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="68" t="s">
         <v>2070</v>
       </c>
       <c r="C29" s="52" t="s">
@@ -10509,7 +10496,9 @@
       <c r="Z29" s="12">
         <v>2</v>
       </c>
-      <c r="AA29" s="12"/>
+      <c r="AA29" s="12">
+        <v>3</v>
+      </c>
       <c r="AB29" s="12">
         <v>0</v>
       </c>
@@ -10519,13 +10508,15 @@
       <c r="AD29" s="12">
         <v>0</v>
       </c>
-      <c r="AE29" s="14"/>
+      <c r="AE29" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1">
       <c r="A30" s="1">
         <v>319</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="66" t="s">
         <v>2082</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -10598,7 +10589,9 @@
       <c r="Z30" s="12">
         <v>0</v>
       </c>
-      <c r="AA30" s="12"/>
+      <c r="AA30" s="12">
+        <v>0</v>
+      </c>
       <c r="AB30" s="12">
         <v>1</v>
       </c>
@@ -10608,13 +10601,15 @@
       <c r="AD30" s="12">
         <v>2</v>
       </c>
-      <c r="AE30" s="14"/>
+      <c r="AE30" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:31" ht="15.75" customHeight="1">
       <c r="A31" s="1">
         <v>320</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="66" t="s">
         <v>2088</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -10687,7 +10682,9 @@
       <c r="Z31" s="12">
         <v>0</v>
       </c>
-      <c r="AA31" s="12"/>
+      <c r="AA31" s="12">
+        <v>2</v>
+      </c>
       <c r="AB31" s="12">
         <v>2</v>
       </c>
@@ -10697,13 +10694,15 @@
       <c r="AD31" s="12">
         <v>1</v>
       </c>
-      <c r="AE31" s="14"/>
+      <c r="AE31" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:31" ht="15.75" customHeight="1">
       <c r="A32" s="1">
         <v>322</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="66" t="s">
         <v>2100</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -10776,7 +10775,9 @@
       <c r="Z32" s="12">
         <v>1</v>
       </c>
-      <c r="AA32" s="12"/>
+      <c r="AA32" s="12">
+        <v>2</v>
+      </c>
       <c r="AB32" s="12">
         <v>0</v>
       </c>
@@ -10786,13 +10787,15 @@
       <c r="AD32" s="12">
         <v>2</v>
       </c>
-      <c r="AE32" s="14"/>
+      <c r="AE32" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:32" ht="15.75" customHeight="1">
       <c r="A33" s="50">
         <v>324</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="68" t="s">
         <v>2112</v>
       </c>
       <c r="C33" s="52" t="s">
@@ -10865,7 +10868,9 @@
       <c r="Z33" s="18">
         <v>2</v>
       </c>
-      <c r="AA33" s="18"/>
+      <c r="AA33" s="18">
+        <v>0</v>
+      </c>
       <c r="AB33" s="12">
         <v>1</v>
       </c>
@@ -10875,13 +10880,15 @@
       <c r="AD33" s="18">
         <v>2</v>
       </c>
-      <c r="AE33" s="14"/>
+      <c r="AE33" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="34" spans="1:32" ht="15.75" customHeight="1">
       <c r="A34" s="36">
         <v>326</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="67" t="s">
         <v>2124</v>
       </c>
       <c r="C34" s="39" t="s">
@@ -10954,7 +10961,9 @@
       <c r="Z34" s="12">
         <v>5</v>
       </c>
-      <c r="AA34" s="12"/>
+      <c r="AA34" s="12">
+        <v>0</v>
+      </c>
       <c r="AB34" s="12">
         <v>2</v>
       </c>
@@ -10964,13 +10973,15 @@
       <c r="AD34" s="12">
         <v>2</v>
       </c>
-      <c r="AE34" s="14"/>
+      <c r="AE34" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:32" ht="15.75" customHeight="1">
       <c r="A35" s="1">
         <v>329</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="66" t="s">
         <v>2142</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -11043,7 +11054,9 @@
       <c r="Z35" s="12">
         <v>1</v>
       </c>
-      <c r="AA35" s="12"/>
+      <c r="AA35" s="12">
+        <v>0</v>
+      </c>
       <c r="AB35" s="12">
         <v>0</v>
       </c>
@@ -11053,13 +11066,15 @@
       <c r="AD35" s="12">
         <v>0</v>
       </c>
-      <c r="AE35" s="14"/>
+      <c r="AE35" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:32" ht="15.75" customHeight="1">
       <c r="A36" s="1">
         <v>330</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="66" t="s">
         <v>2148</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -11132,7 +11147,9 @@
       <c r="Z36" s="12">
         <v>0</v>
       </c>
-      <c r="AA36" s="12"/>
+      <c r="AA36" s="12">
+        <v>0</v>
+      </c>
       <c r="AB36" s="12">
         <v>0</v>
       </c>
@@ -11142,13 +11159,15 @@
       <c r="AD36" s="12">
         <v>0</v>
       </c>
-      <c r="AE36" s="14"/>
+      <c r="AE36" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:32" ht="15.75" customHeight="1">
       <c r="A37" s="36">
         <v>331</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="67" t="s">
         <v>2154</v>
       </c>
       <c r="C37" s="39" t="s">
@@ -11221,7 +11240,9 @@
       <c r="Z37" s="12">
         <v>2</v>
       </c>
-      <c r="AA37" s="12"/>
+      <c r="AA37" s="12">
+        <v>1</v>
+      </c>
       <c r="AB37" s="12">
         <v>1</v>
       </c>
@@ -11231,13 +11252,15 @@
       <c r="AD37" s="12">
         <v>2</v>
       </c>
-      <c r="AE37" s="14"/>
+      <c r="AE37" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:32" ht="15.75" customHeight="1">
       <c r="A38" s="50">
         <v>332</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="68" t="s">
         <v>2160</v>
       </c>
       <c r="C38" s="52" t="s">
@@ -11310,7 +11333,9 @@
       <c r="Z38" s="12">
         <v>1</v>
       </c>
-      <c r="AA38" s="12"/>
+      <c r="AA38" s="12">
+        <v>4</v>
+      </c>
       <c r="AB38" s="12">
         <v>1</v>
       </c>
@@ -11320,13 +11345,15 @@
       <c r="AD38" s="12">
         <v>2</v>
       </c>
-      <c r="AE38" s="14"/>
+      <c r="AE38" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:32" ht="15.75" customHeight="1">
       <c r="A39" s="50">
         <v>333</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="68" t="s">
         <v>2166</v>
       </c>
       <c r="C39" s="52" t="s">
@@ -11399,7 +11426,9 @@
       <c r="Z39" s="12">
         <v>3</v>
       </c>
-      <c r="AA39" s="12"/>
+      <c r="AA39" s="12">
+        <v>0</v>
+      </c>
       <c r="AB39" s="12">
         <v>1</v>
       </c>
@@ -11409,13 +11438,15 @@
       <c r="AD39" s="12">
         <v>2</v>
       </c>
-      <c r="AE39" s="14"/>
+      <c r="AE39" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:32" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>334</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="66" t="s">
         <v>2172</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -11488,7 +11519,9 @@
       <c r="Z40" s="12">
         <v>1</v>
       </c>
-      <c r="AA40" s="12"/>
+      <c r="AA40" s="12">
+        <v>0</v>
+      </c>
       <c r="AB40" s="12">
         <v>0</v>
       </c>
@@ -11498,13 +11531,15 @@
       <c r="AD40" s="12">
         <v>0</v>
       </c>
-      <c r="AE40" s="14"/>
+      <c r="AE40" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" spans="1:32" ht="15.75" customHeight="1">
       <c r="A41" s="50">
         <v>337</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="68" t="s">
         <v>2190</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -11577,7 +11612,9 @@
       <c r="Z41" s="12">
         <v>5</v>
       </c>
-      <c r="AA41" s="12"/>
+      <c r="AA41" s="12">
+        <v>6</v>
+      </c>
       <c r="AB41" s="12">
         <v>0</v>
       </c>
@@ -11587,13 +11624,15 @@
       <c r="AD41" s="12">
         <v>0</v>
       </c>
-      <c r="AE41" s="14"/>
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:32" ht="15.75" customHeight="1">
       <c r="A42" s="50">
         <v>338</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="68" t="s">
         <v>2196</v>
       </c>
       <c r="C42" s="52" t="s">
@@ -11666,7 +11705,9 @@
       <c r="Z42" s="12">
         <v>0</v>
       </c>
-      <c r="AA42" s="12"/>
+      <c r="AA42" s="12">
+        <v>0</v>
+      </c>
       <c r="AB42" s="12">
         <v>2</v>
       </c>
@@ -11676,13 +11717,15 @@
       <c r="AD42" s="12">
         <v>1</v>
       </c>
-      <c r="AE42" s="14"/>
+      <c r="AE42" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:32" ht="15.75" customHeight="1">
       <c r="A43" s="37">
         <v>341</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="67" t="s">
         <v>2214</v>
       </c>
       <c r="C43" s="41" t="s">
@@ -11721,7 +11764,7 @@
       <c r="N43" s="41" t="s">
         <v>2219</v>
       </c>
-      <c r="O43" s="79"/>
+      <c r="O43" s="78"/>
       <c r="P43" s="32">
         <v>14</v>
       </c>
@@ -11755,7 +11798,9 @@
       <c r="Z43" s="32">
         <v>0</v>
       </c>
-      <c r="AA43" s="32"/>
+      <c r="AA43" s="32">
+        <v>1</v>
+      </c>
       <c r="AB43" s="32">
         <v>0</v>
       </c>
@@ -11765,13 +11810,15 @@
       <c r="AD43" s="32">
         <v>0</v>
       </c>
-      <c r="AE43" s="14"/>
+      <c r="AE43" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:32" ht="15.75" customHeight="1">
       <c r="A44" s="51">
         <v>343</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="68" t="s">
         <v>2226</v>
       </c>
       <c r="C44" s="54" t="s">
@@ -11844,7 +11891,9 @@
       <c r="Z44" s="32">
         <v>2</v>
       </c>
-      <c r="AA44" s="32"/>
+      <c r="AA44" s="32">
+        <v>0</v>
+      </c>
       <c r="AB44" s="32">
         <v>2</v>
       </c>
@@ -11854,13 +11903,15 @@
       <c r="AD44" s="32">
         <v>1</v>
       </c>
-      <c r="AE44" s="14"/>
+      <c r="AE44" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1">
       <c r="A45" s="28">
         <v>347</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="66" t="s">
         <v>2250</v>
       </c>
       <c r="C45" s="29" t="s">
@@ -11933,7 +11984,9 @@
       <c r="Z45" s="32">
         <v>1</v>
       </c>
-      <c r="AA45" s="32"/>
+      <c r="AA45" s="32">
+        <v>0</v>
+      </c>
       <c r="AB45" s="32">
         <v>2</v>
       </c>
@@ -11943,13 +11996,15 @@
       <c r="AD45" s="32">
         <v>1</v>
       </c>
-      <c r="AE45" s="14"/>
+      <c r="AE45" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1">
       <c r="A46" s="28">
         <v>350</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="66" t="s">
         <v>2268</v>
       </c>
       <c r="C46" s="29" t="s">
@@ -12022,7 +12077,9 @@
       <c r="Z46" s="32">
         <v>0</v>
       </c>
-      <c r="AA46" s="32"/>
+      <c r="AA46" s="32">
+        <v>0</v>
+      </c>
       <c r="AB46" s="32">
         <v>2</v>
       </c>
@@ -12032,14 +12089,16 @@
       <c r="AD46" s="32">
         <v>2</v>
       </c>
-      <c r="AE46" s="14"/>
+      <c r="AE46" s="12">
+        <v>1</v>
+      </c>
       <c r="AF46" s="14"/>
     </row>
     <row r="47" spans="1:32" ht="15.75" customHeight="1">
       <c r="A47" s="51">
         <v>351</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="68" t="s">
         <v>2274</v>
       </c>
       <c r="C47" s="52" t="s">
@@ -12088,7 +12147,9 @@
       <c r="R47" s="32">
         <v>20</v>
       </c>
-      <c r="S47" s="32"/>
+      <c r="S47" s="32">
+        <v>18</v>
+      </c>
       <c r="T47" s="32">
         <v>2</v>
       </c>
@@ -12110,7 +12171,9 @@
       <c r="Z47" s="32">
         <v>2</v>
       </c>
-      <c r="AA47" s="32"/>
+      <c r="AA47" s="32">
+        <v>5</v>
+      </c>
       <c r="AB47" s="32">
         <v>2</v>
       </c>
@@ -12120,13 +12183,15 @@
       <c r="AD47" s="32">
         <v>2</v>
       </c>
-      <c r="AE47" s="14"/>
+      <c r="AE47" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1">
       <c r="A48" s="37">
         <v>352</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="67" t="s">
         <v>2280</v>
       </c>
       <c r="C48" s="41" t="s">
@@ -12165,7 +12230,7 @@
       <c r="N48" s="41" t="s">
         <v>2285</v>
       </c>
-      <c r="O48" s="79"/>
+      <c r="O48" s="78"/>
       <c r="P48" s="32">
         <v>12</v>
       </c>
@@ -12199,7 +12264,9 @@
       <c r="Z48" s="32">
         <v>1</v>
       </c>
-      <c r="AA48" s="32"/>
+      <c r="AA48" s="32">
+        <v>0</v>
+      </c>
       <c r="AB48" s="32">
         <v>1</v>
       </c>
@@ -12209,13 +12276,15 @@
       <c r="AD48" s="32">
         <v>2</v>
       </c>
-      <c r="AE48" s="14"/>
+      <c r="AE48" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="1:31" ht="15.75" customHeight="1">
       <c r="A49" s="51">
         <v>353</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="68" t="s">
         <v>2286</v>
       </c>
       <c r="C49" s="54" t="s">
@@ -12288,7 +12357,9 @@
       <c r="Z49" s="32">
         <v>0</v>
       </c>
-      <c r="AA49" s="32"/>
+      <c r="AA49" s="32">
+        <v>0</v>
+      </c>
       <c r="AB49" s="32">
         <v>0</v>
       </c>
@@ -12298,13 +12369,15 @@
       <c r="AD49" s="28">
         <v>0</v>
       </c>
-      <c r="AE49" s="14"/>
+      <c r="AE49" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:31" ht="15.75" customHeight="1">
       <c r="A50" s="51">
         <v>354</v>
       </c>
-      <c r="B50" s="66" t="s">
+      <c r="B50" s="85" t="s">
         <v>2292</v>
       </c>
       <c r="C50" s="62" t="s">
@@ -12377,7 +12450,9 @@
       <c r="Z50" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AA50" s="32"/>
+      <c r="AA50" s="32">
+        <v>0</v>
+      </c>
       <c r="AB50" s="32">
         <v>2</v>
       </c>
@@ -12387,13 +12462,15 @@
       <c r="AD50" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AE50" s="14"/>
+      <c r="AE50" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:31" ht="15.75" customHeight="1">
       <c r="A51" s="51">
         <v>355</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="68" t="s">
         <v>2298</v>
       </c>
       <c r="C51" s="54" t="s">
@@ -12466,7 +12543,9 @@
       <c r="Z51" s="32">
         <v>0</v>
       </c>
-      <c r="AA51" s="32"/>
+      <c r="AA51" s="32">
+        <v>0</v>
+      </c>
       <c r="AB51" s="32">
         <v>0</v>
       </c>
@@ -12476,13 +12555,15 @@
       <c r="AD51" s="32">
         <v>0</v>
       </c>
-      <c r="AE51" s="14"/>
+      <c r="AE51" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="52" spans="1:31" ht="15.75" customHeight="1">
       <c r="A52" s="51">
         <v>358</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="68" t="s">
         <v>2316</v>
       </c>
       <c r="C52" s="62" t="s">
@@ -12555,7 +12636,9 @@
       <c r="Z52" s="32">
         <v>0</v>
       </c>
-      <c r="AA52" s="32"/>
+      <c r="AA52" s="32">
+        <v>0</v>
+      </c>
       <c r="AB52" s="32">
         <v>1</v>
       </c>
@@ -12565,13 +12648,15 @@
       <c r="AD52" s="32">
         <v>2</v>
       </c>
-      <c r="AE52" s="14"/>
+      <c r="AE52" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:31" ht="15.75" customHeight="1">
       <c r="A53" s="28">
         <v>360</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="66" t="s">
         <v>2328</v>
       </c>
       <c r="C53" s="20" t="s">
@@ -12644,7 +12729,9 @@
       <c r="Z53" s="32">
         <v>1</v>
       </c>
-      <c r="AA53" s="32"/>
+      <c r="AA53" s="32">
+        <v>1</v>
+      </c>
       <c r="AB53" s="32">
         <v>0</v>
       </c>
@@ -12654,13 +12741,15 @@
       <c r="AD53" s="32">
         <v>2</v>
       </c>
-      <c r="AE53" s="14"/>
+      <c r="AE53" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:31" ht="15.75" customHeight="1">
       <c r="A54" s="28">
         <v>365</v>
       </c>
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="66" t="s">
         <v>2358</v>
       </c>
       <c r="C54" s="20" t="s">
@@ -12733,7 +12822,9 @@
       <c r="Z54" s="32">
         <v>0</v>
       </c>
-      <c r="AA54" s="32"/>
+      <c r="AA54" s="32">
+        <v>0</v>
+      </c>
       <c r="AB54" s="32">
         <v>2</v>
       </c>
@@ -12743,13 +12834,15 @@
       <c r="AD54" s="32">
         <v>0</v>
       </c>
-      <c r="AE54" s="14"/>
+      <c r="AE54" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" spans="1:31" ht="15.75" customHeight="1">
       <c r="A55" s="28">
         <v>366</v>
       </c>
-      <c r="B55" s="23" t="s">
+      <c r="B55" s="66" t="s">
         <v>2364</v>
       </c>
       <c r="C55" s="20" t="s">
@@ -12822,7 +12915,9 @@
       <c r="Z55" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AA55" s="32"/>
+      <c r="AA55" s="32">
+        <v>0</v>
+      </c>
       <c r="AB55" s="32">
         <v>0</v>
       </c>
@@ -12832,13 +12927,15 @@
       <c r="AD55" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AE55" s="14"/>
+      <c r="AE55" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:31" ht="15.75" customHeight="1">
       <c r="A56" s="28">
         <v>368</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="66" t="s">
         <v>2376</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -12887,7 +12984,9 @@
       <c r="R56" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="S56" s="34"/>
+      <c r="S56" s="32">
+        <v>18</v>
+      </c>
       <c r="T56" s="32">
         <v>3</v>
       </c>
@@ -12897,7 +12996,9 @@
       <c r="V56" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="W56" s="32"/>
+      <c r="W56" s="32">
+        <v>2</v>
+      </c>
       <c r="X56" s="32">
         <v>1</v>
       </c>
@@ -12907,7 +13008,9 @@
       <c r="Z56" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AA56" s="32"/>
+      <c r="AA56" s="32">
+        <v>0</v>
+      </c>
       <c r="AB56" s="32">
         <v>2</v>
       </c>
@@ -12917,13 +13020,15 @@
       <c r="AD56" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AE56" s="14"/>
+      <c r="AE56" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:31" ht="15.75" customHeight="1">
       <c r="A57" s="28">
         <v>370</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="66" t="s">
         <v>2388</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -12972,7 +13077,9 @@
       <c r="R57" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="S57" s="34"/>
+      <c r="S57" s="32">
+        <v>19</v>
+      </c>
       <c r="T57" s="32">
         <v>5</v>
       </c>
@@ -12982,7 +13089,9 @@
       <c r="V57" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="W57" s="34"/>
+      <c r="W57" s="32">
+        <v>3</v>
+      </c>
       <c r="X57" s="32">
         <v>0</v>
       </c>
@@ -12992,7 +13101,9 @@
       <c r="Z57" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AA57" s="32"/>
+      <c r="AA57" s="32">
+        <v>3</v>
+      </c>
       <c r="AB57" s="32">
         <v>2</v>
       </c>
@@ -13002,13 +13113,15 @@
       <c r="AD57" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="AE57" s="14"/>
+      <c r="AE57" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:31" ht="15.75" customHeight="1">
       <c r="A58" s="51">
         <v>371</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="68" t="s">
         <v>2394</v>
       </c>
       <c r="C58" s="52" t="s">
@@ -13057,6 +13170,9 @@
       <c r="R58" s="14">
         <v>12</v>
       </c>
+      <c r="S58" s="32">
+        <v>16</v>
+      </c>
       <c r="T58" s="32">
         <v>0</v>
       </c>
@@ -13066,6 +13182,9 @@
       <c r="V58" s="14">
         <v>2</v>
       </c>
+      <c r="W58" s="32">
+        <v>0</v>
+      </c>
       <c r="X58" s="32">
         <v>0</v>
       </c>
@@ -13075,6 +13194,9 @@
       <c r="Z58" s="14">
         <v>0</v>
       </c>
+      <c r="AA58" s="32">
+        <v>0</v>
+      </c>
       <c r="AB58" s="32">
         <v>2</v>
       </c>
@@ -13084,13 +13206,15 @@
       <c r="AD58" s="14">
         <v>2</v>
       </c>
-      <c r="AE58" s="14"/>
+      <c r="AE58" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:31" ht="15.75" customHeight="1">
       <c r="A59" s="28">
         <v>373</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="66" t="s">
         <v>2406</v>
       </c>
       <c r="C59" s="2" t="s">
@@ -13139,6 +13263,9 @@
       <c r="R59" s="14">
         <v>17</v>
       </c>
+      <c r="S59" s="32">
+        <v>17</v>
+      </c>
       <c r="T59" s="32">
         <v>2</v>
       </c>
@@ -13148,6 +13275,9 @@
       <c r="V59" s="14">
         <v>4</v>
       </c>
+      <c r="W59" s="32">
+        <v>2</v>
+      </c>
       <c r="X59" s="32">
         <v>0</v>
       </c>
@@ -13157,6 +13287,9 @@
       <c r="Z59" s="14">
         <v>2</v>
       </c>
+      <c r="AA59" s="32">
+        <v>0</v>
+      </c>
       <c r="AB59" s="32">
         <v>1</v>
       </c>
@@ -13166,13 +13299,15 @@
       <c r="AD59" s="14">
         <v>2</v>
       </c>
-      <c r="AE59" s="14"/>
+      <c r="AE59" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:31" ht="15.75" customHeight="1">
       <c r="A60" s="51">
         <v>375</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="68" t="s">
         <v>2418</v>
       </c>
       <c r="C60" s="52" t="s">
@@ -13221,7 +13356,9 @@
       <c r="R60" s="34">
         <v>10</v>
       </c>
-      <c r="S60" s="34"/>
+      <c r="S60" s="32">
+        <v>10</v>
+      </c>
       <c r="T60" s="32">
         <v>3</v>
       </c>
@@ -13231,7 +13368,9 @@
       <c r="V60" s="34">
         <v>4</v>
       </c>
-      <c r="W60" s="34"/>
+      <c r="W60" s="32">
+        <v>3</v>
+      </c>
       <c r="X60" s="32">
         <v>0</v>
       </c>
@@ -13241,7 +13380,9 @@
       <c r="Z60" s="34">
         <v>0</v>
       </c>
-      <c r="AA60" s="34"/>
+      <c r="AA60" s="32">
+        <v>0</v>
+      </c>
       <c r="AB60" s="32">
         <v>2</v>
       </c>
@@ -13251,13 +13392,15 @@
       <c r="AD60" s="34">
         <v>2</v>
       </c>
-      <c r="AE60" s="14"/>
+      <c r="AE60" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="61" spans="1:31" ht="15.75" customHeight="1">
       <c r="A61" s="51">
         <v>376</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="68" t="s">
         <v>2424</v>
       </c>
       <c r="C61" s="52" t="s">
@@ -13306,7 +13449,9 @@
       <c r="R61" s="34">
         <v>8</v>
       </c>
-      <c r="S61" s="34"/>
+      <c r="S61" s="32">
+        <v>13</v>
+      </c>
       <c r="T61" s="32">
         <v>2</v>
       </c>
@@ -13316,7 +13461,9 @@
       <c r="V61" s="34">
         <v>1</v>
       </c>
-      <c r="W61" s="34"/>
+      <c r="W61" s="32">
+        <v>0</v>
+      </c>
       <c r="X61" s="32">
         <v>0</v>
       </c>
@@ -13326,7 +13473,9 @@
       <c r="Z61" s="34">
         <v>0</v>
       </c>
-      <c r="AA61" s="34"/>
+      <c r="AA61" s="32">
+        <v>0</v>
+      </c>
       <c r="AB61" s="32">
         <v>0</v>
       </c>
@@ -13336,13 +13485,15 @@
       <c r="AD61" s="34">
         <v>0</v>
       </c>
-      <c r="AE61" s="14"/>
+      <c r="AE61" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:31" ht="15.75" customHeight="1">
       <c r="A62" s="50">
         <v>378</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="68" t="s">
         <v>2436</v>
       </c>
       <c r="C62" s="52" t="s">
@@ -13391,6 +13542,9 @@
       <c r="R62" s="14">
         <v>6</v>
       </c>
+      <c r="S62" s="32">
+        <v>10</v>
+      </c>
       <c r="T62" s="32">
         <v>1</v>
       </c>
@@ -13400,6 +13554,9 @@
       <c r="V62" s="14">
         <v>1</v>
       </c>
+      <c r="W62" s="32">
+        <v>1</v>
+      </c>
       <c r="X62" s="32">
         <v>0</v>
       </c>
@@ -13409,6 +13566,9 @@
       <c r="Z62" s="14">
         <v>0</v>
       </c>
+      <c r="AA62" s="32">
+        <v>0</v>
+      </c>
       <c r="AB62" s="32">
         <v>2</v>
       </c>
@@ -13418,13 +13578,15 @@
       <c r="AD62" s="14">
         <v>1</v>
       </c>
-      <c r="AE62" s="14"/>
+      <c r="AE62" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:31" ht="15.75" customHeight="1">
       <c r="A63" s="50">
         <v>379</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="68" t="s">
         <v>2442</v>
       </c>
       <c r="C63" s="52" t="s">
@@ -13473,6 +13635,9 @@
       <c r="R63" s="14">
         <v>14</v>
       </c>
+      <c r="S63" s="32">
+        <v>10</v>
+      </c>
       <c r="T63" s="32">
         <v>1</v>
       </c>
@@ -13482,6 +13647,9 @@
       <c r="V63" s="14">
         <v>2</v>
       </c>
+      <c r="W63" s="32">
+        <v>2</v>
+      </c>
       <c r="X63" s="32">
         <v>0</v>
       </c>
@@ -13491,6 +13659,9 @@
       <c r="Z63" s="14">
         <v>0</v>
       </c>
+      <c r="AA63" s="32">
+        <v>0</v>
+      </c>
       <c r="AB63" s="32">
         <v>2</v>
       </c>
@@ -13500,13 +13671,15 @@
       <c r="AD63" s="14">
         <v>0</v>
       </c>
-      <c r="AE63" s="14"/>
+      <c r="AE63" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:31" ht="15.75" customHeight="1">
       <c r="A64" s="1">
         <v>381</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="66" t="s">
         <v>2454</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -13555,7 +13728,9 @@
       <c r="R64" s="34">
         <v>18</v>
       </c>
-      <c r="S64" s="34"/>
+      <c r="S64" s="32">
+        <v>14</v>
+      </c>
       <c r="T64" s="32">
         <v>3</v>
       </c>
@@ -13565,7 +13740,9 @@
       <c r="V64" s="34">
         <v>2</v>
       </c>
-      <c r="W64" s="34"/>
+      <c r="W64" s="32">
+        <v>4</v>
+      </c>
       <c r="X64" s="32">
         <v>3</v>
       </c>
@@ -13575,7 +13752,9 @@
       <c r="Z64" s="34">
         <v>1</v>
       </c>
-      <c r="AA64" s="34"/>
+      <c r="AA64" s="32">
+        <v>3</v>
+      </c>
       <c r="AB64" s="32">
         <v>2</v>
       </c>
@@ -13585,13 +13764,15 @@
       <c r="AD64" s="34">
         <v>0</v>
       </c>
-      <c r="AE64" s="14"/>
+      <c r="AE64" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:31" ht="15.75" customHeight="1">
       <c r="A65" s="1">
         <v>382</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="66" t="s">
         <v>2460</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -13640,7 +13821,9 @@
       <c r="R65" s="34">
         <v>13</v>
       </c>
-      <c r="S65" s="34"/>
+      <c r="S65" s="32">
+        <v>7</v>
+      </c>
       <c r="T65" s="32">
         <v>0</v>
       </c>
@@ -13650,7 +13833,9 @@
       <c r="V65" s="32">
         <v>2</v>
       </c>
-      <c r="W65" s="32"/>
+      <c r="W65" s="32">
+        <v>0</v>
+      </c>
       <c r="X65" s="32">
         <v>0</v>
       </c>
@@ -13660,7 +13845,9 @@
       <c r="Z65" s="32">
         <v>0</v>
       </c>
-      <c r="AA65" s="32"/>
+      <c r="AA65" s="32">
+        <v>2</v>
+      </c>
       <c r="AB65" s="32">
         <v>1</v>
       </c>
@@ -13670,13 +13857,15 @@
       <c r="AD65" s="32">
         <v>1</v>
       </c>
-      <c r="AE65" s="14"/>
+      <c r="AE65" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:31" ht="15.75" customHeight="1">
       <c r="A66" s="1">
         <v>383</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="66" t="s">
         <v>2466</v>
       </c>
       <c r="C66" s="2" t="s">
@@ -13725,7 +13914,9 @@
       <c r="R66" s="34">
         <v>5</v>
       </c>
-      <c r="S66" s="34"/>
+      <c r="S66" s="32">
+        <v>3</v>
+      </c>
       <c r="T66" s="32">
         <v>0</v>
       </c>
@@ -13735,7 +13926,9 @@
       <c r="V66" s="34">
         <v>0</v>
       </c>
-      <c r="W66" s="34"/>
+      <c r="W66" s="32">
+        <v>0</v>
+      </c>
       <c r="X66" s="32">
         <v>0</v>
       </c>
@@ -13745,7 +13938,9 @@
       <c r="Z66" s="34">
         <v>0</v>
       </c>
-      <c r="AA66" s="34"/>
+      <c r="AA66" s="32">
+        <v>0</v>
+      </c>
       <c r="AB66" s="32">
         <v>0</v>
       </c>
@@ -13755,13 +13950,15 @@
       <c r="AD66" s="34">
         <v>0</v>
       </c>
-      <c r="AE66" s="14"/>
+      <c r="AE66" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:31" ht="15.75" customHeight="1">
       <c r="A67" s="50">
         <v>384</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="68" t="s">
         <v>2472</v>
       </c>
       <c r="C67" s="52" t="s">
@@ -13810,7 +14007,9 @@
       <c r="R67" s="34">
         <v>16</v>
       </c>
-      <c r="S67" s="34"/>
+      <c r="S67" s="32">
+        <v>9</v>
+      </c>
       <c r="T67" s="32">
         <v>1</v>
       </c>
@@ -13820,7 +14019,9 @@
       <c r="V67" s="34">
         <v>2</v>
       </c>
-      <c r="W67" s="34"/>
+      <c r="W67" s="32">
+        <v>0</v>
+      </c>
       <c r="X67" s="32">
         <v>6</v>
       </c>
@@ -13830,7 +14031,9 @@
       <c r="Z67" s="32">
         <v>6</v>
       </c>
-      <c r="AA67" s="32"/>
+      <c r="AA67" s="32">
+        <v>3</v>
+      </c>
       <c r="AB67" s="32">
         <v>2</v>
       </c>
@@ -13840,7 +14043,9 @@
       <c r="AD67" s="34">
         <v>2</v>
       </c>
-      <c r="AE67" s="14"/>
+      <c r="AE67" s="12">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:31" ht="15.75" customHeight="1">
       <c r="A68" s="50">
@@ -15665,16 +15870,16 @@
         <v>673</v>
       </c>
       <c r="O89" s="59"/>
-      <c r="P89" s="71">
-        <v>2</v>
-      </c>
-      <c r="Q89" s="71">
+      <c r="P89" s="70">
+        <v>2</v>
+      </c>
+      <c r="Q89" s="70">
         <v>5</v>
       </c>
-      <c r="R89" s="71">
+      <c r="R89" s="70">
         <v>5</v>
       </c>
-      <c r="S89" s="71"/>
+      <c r="S89" s="70"/>
       <c r="T89" s="11">
         <v>0</v>
       </c>
@@ -19363,59 +19568,59 @@
       <c r="AE132" s="14"/>
     </row>
     <row r="133" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A133" s="81">
+      <c r="A133" s="80">
         <v>151</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="81" t="s">
         <v>1076</v>
       </c>
-      <c r="C133" s="82" t="s">
+      <c r="C133" s="81" t="s">
         <v>540</v>
       </c>
-      <c r="D133" s="82" t="s">
+      <c r="D133" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="E133" s="83">
+      <c r="E133" s="82">
         <v>43383.53860216435</v>
       </c>
-      <c r="F133" s="83">
+      <c r="F133" s="82">
         <v>43383.549340775462</v>
       </c>
-      <c r="G133" s="81">
+      <c r="G133" s="80">
         <v>11500</v>
       </c>
-      <c r="H133" s="82" t="s">
+      <c r="H133" s="81" t="s">
         <v>339</v>
       </c>
-      <c r="I133" s="81">
-        <v>7</v>
-      </c>
-      <c r="J133" s="82" t="s">
+      <c r="I133" s="80">
+        <v>7</v>
+      </c>
+      <c r="J133" s="81" t="s">
         <v>1077</v>
       </c>
-      <c r="K133" s="82" t="s">
+      <c r="K133" s="81" t="s">
         <v>1078</v>
       </c>
-      <c r="L133" s="82" t="s">
+      <c r="L133" s="81" t="s">
         <v>1079</v>
       </c>
-      <c r="M133" s="82" t="s">
+      <c r="M133" s="81" t="s">
         <v>1080</v>
       </c>
-      <c r="N133" s="82" t="s">
+      <c r="N133" s="81" t="s">
         <v>1081</v>
       </c>
-      <c r="O133" s="84"/>
-      <c r="P133" s="85">
+      <c r="O133" s="83"/>
+      <c r="P133" s="84">
         <v>8</v>
       </c>
-      <c r="Q133" s="85">
+      <c r="Q133" s="84">
         <v>11</v>
       </c>
-      <c r="R133" s="85">
+      <c r="R133" s="84">
         <v>9</v>
       </c>
-      <c r="S133" s="85"/>
+      <c r="S133" s="84"/>
       <c r="T133" s="27">
         <v>2</v>
       </c>
@@ -24083,7 +24288,7 @@
       <c r="N188" s="54" t="s">
         <v>1627</v>
       </c>
-      <c r="O188" s="72"/>
+      <c r="O188" s="71"/>
       <c r="P188" s="32">
         <v>14</v>
       </c>
@@ -24169,16 +24374,16 @@
         <v>2189</v>
       </c>
       <c r="O189" s="59"/>
-      <c r="P189" s="71">
+      <c r="P189" s="70">
         <v>10</v>
       </c>
-      <c r="Q189" s="71">
+      <c r="Q189" s="70">
         <v>16</v>
       </c>
-      <c r="R189" s="71">
+      <c r="R189" s="70">
         <v>11</v>
       </c>
-      <c r="S189" s="71"/>
+      <c r="S189" s="70"/>
       <c r="T189" s="11">
         <v>3</v>
       </c>
@@ -25083,7 +25288,7 @@
       <c r="A205" s="50">
         <v>16</v>
       </c>
-      <c r="B205" s="69" t="s">
+      <c r="B205" s="68" t="s">
         <v>237</v>
       </c>
       <c r="C205" s="52" t="s">
@@ -25176,7 +25381,7 @@
       <c r="A206" s="50">
         <v>246</v>
       </c>
-      <c r="B206" s="69" t="s">
+      <c r="B206" s="68" t="s">
         <v>1646</v>
       </c>
       <c r="C206" s="52" t="s">
@@ -25269,7 +25474,7 @@
       <c r="A207" s="50">
         <v>248</v>
       </c>
-      <c r="B207" s="69" t="s">
+      <c r="B207" s="68" t="s">
         <v>1658</v>
       </c>
       <c r="C207" s="52" t="s">
@@ -25362,7 +25567,7 @@
       <c r="A208" s="50">
         <v>249</v>
       </c>
-      <c r="B208" s="69" t="s">
+      <c r="B208" s="68" t="s">
         <v>1664</v>
       </c>
       <c r="C208" s="52" t="s">
@@ -25455,7 +25660,7 @@
       <c r="A209" s="1">
         <v>255</v>
       </c>
-      <c r="B209" s="67" t="s">
+      <c r="B209" s="66" t="s">
         <v>1698</v>
       </c>
       <c r="C209" s="2" t="s">
@@ -25548,7 +25753,7 @@
       <c r="A210" s="36">
         <v>256</v>
       </c>
-      <c r="B210" s="68" t="s">
+      <c r="B210" s="67" t="s">
         <v>1704</v>
       </c>
       <c r="C210" s="39" t="s">
@@ -25641,7 +25846,7 @@
       <c r="A211" s="50">
         <v>257</v>
       </c>
-      <c r="B211" s="69" t="s">
+      <c r="B211" s="68" t="s">
         <v>1710</v>
       </c>
       <c r="C211" s="52" t="s">
@@ -25734,7 +25939,7 @@
       <c r="A212" s="50">
         <v>258</v>
       </c>
-      <c r="B212" s="69" t="s">
+      <c r="B212" s="68" t="s">
         <v>1716</v>
       </c>
       <c r="C212" s="52" t="s">
@@ -25827,7 +26032,7 @@
       <c r="A213" s="50">
         <v>259</v>
       </c>
-      <c r="B213" s="69" t="s">
+      <c r="B213" s="68" t="s">
         <v>1722</v>
       </c>
       <c r="C213" s="52" t="s">
@@ -25920,7 +26125,7 @@
       <c r="A214" s="50">
         <v>260</v>
       </c>
-      <c r="B214" s="69" t="s">
+      <c r="B214" s="68" t="s">
         <v>1728</v>
       </c>
       <c r="C214" s="52" t="s">
@@ -26013,7 +26218,7 @@
       <c r="A215" s="50">
         <v>261</v>
       </c>
-      <c r="B215" s="69" t="s">
+      <c r="B215" s="68" t="s">
         <v>1734</v>
       </c>
       <c r="C215" s="52" t="s">
@@ -26106,7 +26311,7 @@
       <c r="A216" s="50">
         <v>262</v>
       </c>
-      <c r="B216" s="69" t="s">
+      <c r="B216" s="68" t="s">
         <v>1740</v>
       </c>
       <c r="C216" s="52" t="s">
@@ -26199,7 +26404,7 @@
       <c r="A217" s="50">
         <v>265</v>
       </c>
-      <c r="B217" s="69" t="s">
+      <c r="B217" s="68" t="s">
         <v>1758</v>
       </c>
       <c r="C217" s="52" t="s">
@@ -26292,7 +26497,7 @@
       <c r="A218" s="50">
         <v>266</v>
       </c>
-      <c r="B218" s="69" t="s">
+      <c r="B218" s="68" t="s">
         <v>1764</v>
       </c>
       <c r="C218" s="52" t="s">
@@ -26385,7 +26590,7 @@
       <c r="A219" s="50">
         <v>267</v>
       </c>
-      <c r="B219" s="69" t="s">
+      <c r="B219" s="68" t="s">
         <v>1770</v>
       </c>
       <c r="C219" s="52" t="s">
@@ -26478,7 +26683,7 @@
       <c r="A220" s="50">
         <v>268</v>
       </c>
-      <c r="B220" s="69" t="s">
+      <c r="B220" s="68" t="s">
         <v>1776</v>
       </c>
       <c r="C220" s="52" t="s">
@@ -26571,7 +26776,7 @@
       <c r="A221" s="50">
         <v>273</v>
       </c>
-      <c r="B221" s="69" t="s">
+      <c r="B221" s="68" t="s">
         <v>1806</v>
       </c>
       <c r="C221" s="52" t="s">
@@ -26664,7 +26869,7 @@
       <c r="A222" s="50">
         <v>274</v>
       </c>
-      <c r="B222" s="69" t="s">
+      <c r="B222" s="68" t="s">
         <v>1812</v>
       </c>
       <c r="C222" s="52" t="s">
@@ -26757,7 +26962,7 @@
       <c r="A223" s="50">
         <v>275</v>
       </c>
-      <c r="B223" s="69" t="s">
+      <c r="B223" s="68" t="s">
         <v>1818</v>
       </c>
       <c r="C223" s="52" t="s">
@@ -26850,7 +27055,7 @@
       <c r="A224" s="50">
         <v>276</v>
       </c>
-      <c r="B224" s="69" t="s">
+      <c r="B224" s="68" t="s">
         <v>1824</v>
       </c>
       <c r="C224" s="52" t="s">
@@ -26943,7 +27148,7 @@
       <c r="A225" s="50">
         <v>277</v>
       </c>
-      <c r="B225" s="69" t="s">
+      <c r="B225" s="68" t="s">
         <v>1830</v>
       </c>
       <c r="C225" s="52" t="s">
@@ -27036,7 +27241,7 @@
       <c r="A226" s="50">
         <v>279</v>
       </c>
-      <c r="B226" s="69" t="s">
+      <c r="B226" s="68" t="s">
         <v>1842</v>
       </c>
       <c r="C226" s="52" t="s">
@@ -27129,7 +27334,7 @@
       <c r="A227" s="1">
         <v>281</v>
       </c>
-      <c r="B227" s="67" t="s">
+      <c r="B227" s="66" t="s">
         <v>1854</v>
       </c>
       <c r="C227" s="2" t="s">
@@ -27222,7 +27427,7 @@
       <c r="A228" s="50">
         <v>282</v>
       </c>
-      <c r="B228" s="69" t="s">
+      <c r="B228" s="68" t="s">
         <v>1860</v>
       </c>
       <c r="C228" s="52" t="s">
@@ -27315,7 +27520,7 @@
       <c r="A229" s="50">
         <v>284</v>
       </c>
-      <c r="B229" s="69" t="s">
+      <c r="B229" s="68" t="s">
         <v>1872</v>
       </c>
       <c r="C229" s="52" t="s">
@@ -27408,7 +27613,7 @@
       <c r="A230" s="50">
         <v>285</v>
       </c>
-      <c r="B230" s="69" t="s">
+      <c r="B230" s="68" t="s">
         <v>1878</v>
       </c>
       <c r="C230" s="52" t="s">
@@ -27501,7 +27706,7 @@
       <c r="A231" s="50">
         <v>287</v>
       </c>
-      <c r="B231" s="69" t="s">
+      <c r="B231" s="68" t="s">
         <v>1890</v>
       </c>
       <c r="C231" s="52" t="s">
@@ -27594,7 +27799,7 @@
       <c r="A232" s="1">
         <v>289</v>
       </c>
-      <c r="B232" s="67" t="s">
+      <c r="B232" s="66" t="s">
         <v>1902</v>
       </c>
       <c r="C232" s="2" t="s">
@@ -27687,7 +27892,7 @@
       <c r="A233" s="50">
         <v>290</v>
       </c>
-      <c r="B233" s="69" t="s">
+      <c r="B233" s="68" t="s">
         <v>1908</v>
       </c>
       <c r="C233" s="52" t="s">
@@ -27780,7 +27985,7 @@
       <c r="A234" s="36">
         <v>291</v>
       </c>
-      <c r="B234" s="68" t="s">
+      <c r="B234" s="67" t="s">
         <v>1914</v>
       </c>
       <c r="C234" s="39" t="s">
@@ -27873,7 +28078,7 @@
       <c r="A235" s="1">
         <v>292</v>
       </c>
-      <c r="B235" s="67" t="s">
+      <c r="B235" s="66" t="s">
         <v>1920</v>
       </c>
       <c r="C235" s="2" t="s">
@@ -27966,7 +28171,7 @@
       <c r="A236" s="50">
         <v>293</v>
       </c>
-      <c r="B236" s="69" t="s">
+      <c r="B236" s="68" t="s">
         <v>1926</v>
       </c>
       <c r="C236" s="52" t="s">
@@ -28059,7 +28264,7 @@
       <c r="A237" s="50">
         <v>295</v>
       </c>
-      <c r="B237" s="69" t="s">
+      <c r="B237" s="68" t="s">
         <v>1938</v>
       </c>
       <c r="C237" s="52" t="s">
@@ -28152,7 +28357,7 @@
       <c r="A238" s="50">
         <v>299</v>
       </c>
-      <c r="B238" s="69" t="s">
+      <c r="B238" s="68" t="s">
         <v>1962</v>
       </c>
       <c r="C238" s="52" t="s">
@@ -28245,7 +28450,7 @@
       <c r="A239" s="50">
         <v>300</v>
       </c>
-      <c r="B239" s="69" t="s">
+      <c r="B239" s="68" t="s">
         <v>1968</v>
       </c>
       <c r="C239" s="52" t="s">
@@ -28338,7 +28543,7 @@
       <c r="A240" s="50">
         <v>301</v>
       </c>
-      <c r="B240" s="69" t="s">
+      <c r="B240" s="68" t="s">
         <v>1974</v>
       </c>
       <c r="C240" s="52" t="s">
@@ -28431,7 +28636,7 @@
       <c r="A241" s="50">
         <v>335</v>
       </c>
-      <c r="B241" s="69" t="s">
+      <c r="B241" s="68" t="s">
         <v>2178</v>
       </c>
       <c r="C241" s="52" t="s">
@@ -28524,7 +28729,7 @@
       <c r="A242" s="51">
         <v>340</v>
       </c>
-      <c r="B242" s="69" t="s">
+      <c r="B242" s="68" t="s">
         <v>2208</v>
       </c>
       <c r="C242" s="54" t="s">
@@ -28617,7 +28822,7 @@
       <c r="A243" s="50">
         <v>78</v>
       </c>
-      <c r="B243" s="69" t="s">
+      <c r="B243" s="68" t="s">
         <v>630</v>
       </c>
       <c r="C243" s="52" t="s">
@@ -28663,7 +28868,7 @@
       <c r="Q243" s="11">
         <v>13</v>
       </c>
-      <c r="R243" s="71">
+      <c r="R243" s="70">
         <v>12</v>
       </c>
       <c r="S243" s="11">
@@ -28711,7 +28916,7 @@
       <c r="A244" s="1">
         <v>81</v>
       </c>
-      <c r="B244" s="67" t="s">
+      <c r="B244" s="66" t="s">
         <v>648</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -28804,7 +29009,7 @@
       <c r="A245" s="50">
         <v>92</v>
       </c>
-      <c r="B245" s="80" t="s">
+      <c r="B245" s="79" t="s">
         <v>717</v>
       </c>
       <c r="C245" s="52" t="s">
@@ -28897,7 +29102,7 @@
       <c r="A246" s="50">
         <v>118</v>
       </c>
-      <c r="B246" s="69" t="s">
+      <c r="B246" s="68" t="s">
         <v>877</v>
       </c>
       <c r="C246" s="52" t="s">
@@ -28990,7 +29195,7 @@
       <c r="A247" s="36">
         <v>119</v>
       </c>
-      <c r="B247" s="68" t="s">
+      <c r="B247" s="67" t="s">
         <v>883</v>
       </c>
       <c r="C247" s="39" t="s">
@@ -29083,7 +29288,7 @@
       <c r="A248" s="50">
         <v>149</v>
       </c>
-      <c r="B248" s="69" t="s">
+      <c r="B248" s="68" t="s">
         <v>1064</v>
       </c>
       <c r="C248" s="52" t="s">
@@ -29176,7 +29381,7 @@
       <c r="A249" s="1">
         <v>159</v>
       </c>
-      <c r="B249" s="67" t="s">
+      <c r="B249" s="66" t="s">
         <v>1124</v>
       </c>
       <c r="C249" s="2" t="s">
@@ -29269,7 +29474,7 @@
       <c r="A250" s="1">
         <v>219</v>
       </c>
-      <c r="B250" s="67" t="s">
+      <c r="B250" s="66" t="s">
         <v>1484</v>
       </c>
       <c r="C250" s="2" t="s">
@@ -29360,7 +29565,7 @@
       <c r="A251" s="50">
         <v>220</v>
       </c>
-      <c r="B251" s="69" t="s">
+      <c r="B251" s="68" t="s">
         <v>1490</v>
       </c>
       <c r="C251" s="52" t="s">
@@ -29453,7 +29658,7 @@
       <c r="A252" s="50">
         <v>227</v>
       </c>
-      <c r="B252" s="69" t="s">
+      <c r="B252" s="68" t="s">
         <v>1532</v>
       </c>
       <c r="C252" s="52" t="s">
@@ -29546,7 +29751,7 @@
       <c r="A253" s="1">
         <v>8</v>
       </c>
-      <c r="B253" s="67" t="s">
+      <c r="B253" s="66" t="s">
         <v>185</v>
       </c>
       <c r="C253" s="2" t="s">
@@ -29639,7 +29844,7 @@
       <c r="A254" s="1">
         <v>20</v>
       </c>
-      <c r="B254" s="67" t="s">
+      <c r="B254" s="66" t="s">
         <v>262</v>
       </c>
       <c r="C254" s="2" t="s">
@@ -29732,7 +29937,7 @@
       <c r="A255" s="50">
         <v>33</v>
       </c>
-      <c r="B255" s="69" t="s">
+      <c r="B255" s="68" t="s">
         <v>345</v>
       </c>
       <c r="C255" s="52" t="s">
@@ -29825,7 +30030,7 @@
       <c r="A256" s="50">
         <v>244</v>
       </c>
-      <c r="B256" s="69" t="s">
+      <c r="B256" s="68" t="s">
         <v>1634</v>
       </c>
       <c r="C256" s="52" t="s">
@@ -29918,7 +30123,7 @@
       <c r="A257" s="36">
         <v>247</v>
       </c>
-      <c r="B257" s="68" t="s">
+      <c r="B257" s="67" t="s">
         <v>1652</v>
       </c>
       <c r="C257" s="39" t="s">
@@ -30011,7 +30216,7 @@
       <c r="A258" s="50">
         <v>250</v>
       </c>
-      <c r="B258" s="69" t="s">
+      <c r="B258" s="68" t="s">
         <v>1670</v>
       </c>
       <c r="C258" s="52" t="s">
@@ -30104,7 +30309,7 @@
       <c r="A259" s="1">
         <v>271</v>
       </c>
-      <c r="B259" s="67" t="s">
+      <c r="B259" s="66" t="s">
         <v>1794</v>
       </c>
       <c r="C259" s="2" t="s">
@@ -30198,7 +30403,7 @@
       <c r="A260" s="50">
         <v>278</v>
       </c>
-      <c r="B260" s="69" t="s">
+      <c r="B260" s="68" t="s">
         <v>1836</v>
       </c>
       <c r="C260" s="52" t="s">
@@ -30291,7 +30496,7 @@
       <c r="A261" s="36">
         <v>311</v>
       </c>
-      <c r="B261" s="68" t="s">
+      <c r="B261" s="67" t="s">
         <v>2034</v>
       </c>
       <c r="C261" s="39" t="s">
@@ -30384,7 +30589,7 @@
       <c r="A262" s="50">
         <v>321</v>
       </c>
-      <c r="B262" s="69" t="s">
+      <c r="B262" s="68" t="s">
         <v>2094</v>
       </c>
       <c r="C262" s="52" t="s">
@@ -30477,7 +30682,7 @@
       <c r="A263" s="50">
         <v>327</v>
       </c>
-      <c r="B263" s="69" t="s">
+      <c r="B263" s="68" t="s">
         <v>2130</v>
       </c>
       <c r="C263" s="52" t="s">
@@ -30570,7 +30775,7 @@
       <c r="A264" s="51">
         <v>346</v>
       </c>
-      <c r="B264" s="69" t="s">
+      <c r="B264" s="68" t="s">
         <v>2244</v>
       </c>
       <c r="C264" s="54" t="s">
@@ -30663,7 +30868,7 @@
       <c r="A265" s="28">
         <v>349</v>
       </c>
-      <c r="B265" s="67" t="s">
+      <c r="B265" s="66" t="s">
         <v>2262</v>
       </c>
       <c r="C265" s="29" t="s">
@@ -30756,7 +30961,7 @@
       <c r="A266" s="28">
         <v>367</v>
       </c>
-      <c r="B266" s="67" t="s">
+      <c r="B266" s="66" t="s">
         <v>2370</v>
       </c>
       <c r="C266" s="20" t="s">
@@ -30849,7 +31054,7 @@
       <c r="A267" s="28">
         <v>374</v>
       </c>
-      <c r="B267" s="67" t="s">
+      <c r="B267" s="66" t="s">
         <v>2412</v>
       </c>
       <c r="C267" s="2" t="s">
@@ -30942,7 +31147,7 @@
       <c r="A268" s="36">
         <v>380</v>
       </c>
-      <c r="B268" s="68" t="s">
+      <c r="B268" s="67" t="s">
         <v>2448</v>
       </c>
       <c r="C268" s="39" t="s">
@@ -31035,7 +31240,7 @@
       <c r="A269" s="36">
         <v>1</v>
       </c>
-      <c r="B269" s="68" t="s">
+      <c r="B269" s="67" t="s">
         <v>131</v>
       </c>
       <c r="C269" s="39" t="s">
@@ -31128,7 +31333,7 @@
       <c r="A270" s="50">
         <v>49</v>
       </c>
-      <c r="B270" s="69" t="s">
+      <c r="B270" s="68" t="s">
         <v>448</v>
       </c>
       <c r="C270" s="52" t="s">
@@ -31221,7 +31426,7 @@
       <c r="A271" s="50">
         <v>57</v>
       </c>
-      <c r="B271" s="69" t="s">
+      <c r="B271" s="68" t="s">
         <v>501</v>
       </c>
       <c r="C271" s="52" t="s">
@@ -31314,7 +31519,7 @@
       <c r="A272" s="50">
         <v>75</v>
       </c>
-      <c r="B272" s="69" t="s">
+      <c r="B272" s="68" t="s">
         <v>612</v>
       </c>
       <c r="C272" s="52" t="s">
@@ -31354,16 +31559,16 @@
         <v>617</v>
       </c>
       <c r="O272" s="59"/>
-      <c r="P272" s="71">
+      <c r="P272" s="70">
         <v>17</v>
       </c>
-      <c r="Q272" s="71">
+      <c r="Q272" s="70">
         <v>16</v>
       </c>
-      <c r="R272" s="71">
+      <c r="R272" s="70">
         <v>15</v>
       </c>
-      <c r="S272" s="71">
+      <c r="S272" s="70">
         <v>15</v>
       </c>
       <c r="T272" s="11">
@@ -31407,7 +31612,7 @@
       <c r="A273" s="50">
         <v>76</v>
       </c>
-      <c r="B273" s="69" t="s">
+      <c r="B273" s="68" t="s">
         <v>618</v>
       </c>
       <c r="C273" s="52" t="s">
@@ -31500,7 +31705,7 @@
       <c r="A274" s="1">
         <v>86</v>
       </c>
-      <c r="B274" s="67" t="s">
+      <c r="B274" s="66" t="s">
         <v>681</v>
       </c>
       <c r="C274" s="2" t="s">
@@ -31546,7 +31751,7 @@
       <c r="Q274" s="11">
         <v>7</v>
       </c>
-      <c r="R274" s="78">
+      <c r="R274" s="77">
         <v>16</v>
       </c>
       <c r="S274" s="11">
@@ -31593,7 +31798,7 @@
       <c r="A275" s="50">
         <v>126</v>
       </c>
-      <c r="B275" s="69" t="s">
+      <c r="B275" s="68" t="s">
         <v>926</v>
       </c>
       <c r="C275" s="52" t="s">
@@ -31686,7 +31891,7 @@
       <c r="A276" s="50">
         <v>131</v>
       </c>
-      <c r="B276" s="69" t="s">
+      <c r="B276" s="68" t="s">
         <v>956</v>
       </c>
       <c r="C276" s="52" t="s">
@@ -31779,7 +31984,7 @@
       <c r="A277" s="50">
         <v>142</v>
       </c>
-      <c r="B277" s="69" t="s">
+      <c r="B277" s="68" t="s">
         <v>1022</v>
       </c>
       <c r="C277" s="52" t="s">
@@ -31872,7 +32077,7 @@
       <c r="A278" s="50">
         <v>143</v>
       </c>
-      <c r="B278" s="69" t="s">
+      <c r="B278" s="68" t="s">
         <v>1028</v>
       </c>
       <c r="C278" s="52" t="s">
@@ -31966,7 +32171,7 @@
       <c r="A279" s="36">
         <v>157</v>
       </c>
-      <c r="B279" s="68" t="s">
+      <c r="B279" s="67" t="s">
         <v>1112</v>
       </c>
       <c r="C279" s="39" t="s">
@@ -32059,7 +32264,7 @@
       <c r="A280" s="36">
         <v>158</v>
       </c>
-      <c r="B280" s="68" t="s">
+      <c r="B280" s="67" t="s">
         <v>1118</v>
       </c>
       <c r="C280" s="39" t="s">
@@ -32152,7 +32357,7 @@
       <c r="A281" s="50">
         <v>184</v>
       </c>
-      <c r="B281" s="69" t="s">
+      <c r="B281" s="68" t="s">
         <v>1274</v>
       </c>
       <c r="C281" s="52" t="s">
@@ -32245,7 +32450,7 @@
       <c r="A282" s="50">
         <v>208</v>
       </c>
-      <c r="B282" s="69" t="s">
+      <c r="B282" s="68" t="s">
         <v>1418</v>
       </c>
       <c r="C282" s="52" t="s">
@@ -32338,7 +32543,7 @@
       <c r="A283" s="50">
         <v>213</v>
       </c>
-      <c r="B283" s="69" t="s">
+      <c r="B283" s="68" t="s">
         <v>1448</v>
       </c>
       <c r="C283" s="52" t="s">
@@ -32432,7 +32637,7 @@
       <c r="A284" s="50">
         <v>224</v>
       </c>
-      <c r="B284" s="69" t="s">
+      <c r="B284" s="68" t="s">
         <v>1514</v>
       </c>
       <c r="C284" s="52" t="s">
@@ -32525,7 +32730,7 @@
       <c r="A285" s="50">
         <v>239</v>
       </c>
-      <c r="B285" s="69" t="s">
+      <c r="B285" s="68" t="s">
         <v>1604</v>
       </c>
       <c r="C285" s="52" t="s">
@@ -32618,7 +32823,7 @@
       <c r="A286" s="36">
         <v>7</v>
       </c>
-      <c r="B286" s="68" t="s">
+      <c r="B286" s="67" t="s">
         <v>179</v>
       </c>
       <c r="C286" s="39" t="s">
@@ -32711,7 +32916,7 @@
       <c r="A287" s="1">
         <v>9</v>
       </c>
-      <c r="B287" s="67" t="s">
+      <c r="B287" s="66" t="s">
         <v>192</v>
       </c>
       <c r="C287" s="2" t="s">
@@ -32804,7 +33009,7 @@
       <c r="A288" s="50">
         <v>11</v>
       </c>
-      <c r="B288" s="69" t="s">
+      <c r="B288" s="68" t="s">
         <v>207</v>
       </c>
       <c r="C288" s="52" t="s">
@@ -32898,7 +33103,7 @@
       <c r="A289" s="1">
         <v>12</v>
       </c>
-      <c r="B289" s="67" t="s">
+      <c r="B289" s="66" t="s">
         <v>213</v>
       </c>
       <c r="C289" s="2" t="s">
@@ -32992,7 +33197,7 @@
       <c r="A290" s="50">
         <v>24</v>
       </c>
-      <c r="B290" s="69" t="s">
+      <c r="B290" s="68" t="s">
         <v>288</v>
       </c>
       <c r="C290" s="52" t="s">
@@ -33085,7 +33290,7 @@
       <c r="A291" s="50">
         <v>25</v>
       </c>
-      <c r="B291" s="69" t="s">
+      <c r="B291" s="68" t="s">
         <v>294</v>
       </c>
       <c r="C291" s="52" t="s">
@@ -33178,7 +33383,7 @@
       <c r="A292" s="1">
         <v>28</v>
       </c>
-      <c r="B292" s="67" t="s">
+      <c r="B292" s="66" t="s">
         <v>312</v>
       </c>
       <c r="C292" s="2" t="s">
@@ -33267,7 +33472,7 @@
       <c r="A293" s="50">
         <v>34</v>
       </c>
-      <c r="B293" s="69" t="s">
+      <c r="B293" s="68" t="s">
         <v>351</v>
       </c>
       <c r="C293" s="52" t="s">
@@ -33360,7 +33565,7 @@
       <c r="A294" s="50">
         <v>35</v>
       </c>
-      <c r="B294" s="69" t="s">
+      <c r="B294" s="68" t="s">
         <v>359</v>
       </c>
       <c r="C294" s="52" t="s">
@@ -33454,7 +33659,7 @@
       <c r="A295" s="50">
         <v>36</v>
       </c>
-      <c r="B295" s="69" t="s">
+      <c r="B295" s="68" t="s">
         <v>365</v>
       </c>
       <c r="C295" s="52" t="s">
@@ -33547,7 +33752,7 @@
       <c r="A296" s="50">
         <v>37</v>
       </c>
-      <c r="B296" s="69" t="s">
+      <c r="B296" s="68" t="s">
         <v>371</v>
       </c>
       <c r="C296" s="52" t="s">
@@ -33640,7 +33845,7 @@
       <c r="A297" s="1">
         <v>40</v>
       </c>
-      <c r="B297" s="67" t="s">
+      <c r="B297" s="66" t="s">
         <v>391</v>
       </c>
       <c r="C297" s="2" t="s">
@@ -33733,7 +33938,7 @@
       <c r="A298" s="50">
         <v>42</v>
       </c>
-      <c r="B298" s="69" t="s">
+      <c r="B298" s="68" t="s">
         <v>403</v>
       </c>
       <c r="C298" s="52" t="s">
@@ -33826,7 +34031,7 @@
       <c r="A299" s="50">
         <v>46</v>
       </c>
-      <c r="B299" s="69" t="s">
+      <c r="B299" s="68" t="s">
         <v>428</v>
       </c>
       <c r="C299" s="52" t="s">
@@ -33920,7 +34125,7 @@
       <c r="A300" s="50">
         <v>50</v>
       </c>
-      <c r="B300" s="69" t="s">
+      <c r="B300" s="68" t="s">
         <v>454</v>
       </c>
       <c r="C300" s="52" t="s">
@@ -34013,7 +34218,7 @@
       <c r="A301" s="50">
         <v>55</v>
       </c>
-      <c r="B301" s="69" t="s">
+      <c r="B301" s="68" t="s">
         <v>486</v>
       </c>
       <c r="C301" s="52" t="s">
@@ -34106,7 +34311,7 @@
       <c r="A302" s="50">
         <v>60</v>
       </c>
-      <c r="B302" s="69" t="s">
+      <c r="B302" s="68" t="s">
         <v>520</v>
       </c>
       <c r="C302" s="52" t="s">
@@ -34199,7 +34404,7 @@
       <c r="A303" s="50">
         <v>66</v>
       </c>
-      <c r="B303" s="69" t="s">
+      <c r="B303" s="68" t="s">
         <v>558</v>
       </c>
       <c r="C303" s="52" t="s">
@@ -34292,7 +34497,7 @@
       <c r="A304" s="50">
         <v>67</v>
       </c>
-      <c r="B304" s="69" t="s">
+      <c r="B304" s="68" t="s">
         <v>564</v>
       </c>
       <c r="C304" s="52" t="s">
@@ -34385,7 +34590,7 @@
       <c r="A305" s="50">
         <v>69</v>
       </c>
-      <c r="B305" s="69" t="s">
+      <c r="B305" s="68" t="s">
         <v>576</v>
       </c>
       <c r="C305" s="52" t="s">
@@ -34478,7 +34683,7 @@
       <c r="A306" s="50">
         <v>72</v>
       </c>
-      <c r="B306" s="69" t="s">
+      <c r="B306" s="68" t="s">
         <v>594</v>
       </c>
       <c r="C306" s="52" t="s">
@@ -34571,7 +34776,7 @@
       <c r="A307" s="50">
         <v>74</v>
       </c>
-      <c r="B307" s="69" t="s">
+      <c r="B307" s="68" t="s">
         <v>606</v>
       </c>
       <c r="C307" s="52" t="s">
@@ -34664,7 +34869,7 @@
       <c r="A308" s="50">
         <v>79</v>
       </c>
-      <c r="B308" s="69" t="s">
+      <c r="B308" s="68" t="s">
         <v>636</v>
       </c>
       <c r="C308" s="52" t="s">
@@ -34757,7 +34962,7 @@
       <c r="A309" s="1">
         <v>80</v>
       </c>
-      <c r="B309" s="67" t="s">
+      <c r="B309" s="66" t="s">
         <v>642</v>
       </c>
       <c r="C309" s="2" t="s">
@@ -34850,7 +35055,7 @@
       <c r="A310" s="36">
         <v>83</v>
       </c>
-      <c r="B310" s="68" t="s">
+      <c r="B310" s="67" t="s">
         <v>660</v>
       </c>
       <c r="C310" s="39" t="s">
@@ -34943,7 +35148,7 @@
       <c r="A311" s="50">
         <v>85</v>
       </c>
-      <c r="B311" s="69" t="s">
+      <c r="B311" s="68" t="s">
         <v>674</v>
       </c>
       <c r="C311" s="52" t="s">
@@ -35036,7 +35241,7 @@
       <c r="A312" s="36">
         <v>88</v>
       </c>
-      <c r="B312" s="68" t="s">
+      <c r="B312" s="67" t="s">
         <v>693</v>
       </c>
       <c r="C312" s="39" t="s">
@@ -35129,7 +35334,7 @@
       <c r="A313" s="36">
         <v>89</v>
       </c>
-      <c r="B313" s="68" t="s">
+      <c r="B313" s="67" t="s">
         <v>699</v>
       </c>
       <c r="C313" s="39" t="s">
@@ -35222,7 +35427,7 @@
       <c r="A314" s="50">
         <v>90</v>
       </c>
-      <c r="B314" s="69" t="s">
+      <c r="B314" s="68" t="s">
         <v>705</v>
       </c>
       <c r="C314" s="52" t="s">
@@ -35315,7 +35520,7 @@
       <c r="A315" s="50">
         <v>93</v>
       </c>
-      <c r="B315" s="69" t="s">
+      <c r="B315" s="68" t="s">
         <v>724</v>
       </c>
       <c r="C315" s="52" t="s">
@@ -35408,7 +35613,7 @@
       <c r="A316" s="50">
         <v>105</v>
       </c>
-      <c r="B316" s="69" t="s">
+      <c r="B316" s="68" t="s">
         <v>797</v>
       </c>
       <c r="C316" s="52" t="s">
@@ -35501,7 +35706,7 @@
       <c r="A317" s="1">
         <v>111</v>
       </c>
-      <c r="B317" s="67" t="s">
+      <c r="B317" s="66" t="s">
         <v>834</v>
       </c>
       <c r="C317" s="2" t="s">
@@ -35594,7 +35799,7 @@
       <c r="A318" s="50">
         <v>112</v>
       </c>
-      <c r="B318" s="69" t="s">
+      <c r="B318" s="68" t="s">
         <v>840</v>
       </c>
       <c r="C318" s="52" t="s">
@@ -35687,7 +35892,7 @@
       <c r="A319" s="36">
         <v>130</v>
       </c>
-      <c r="B319" s="68" t="s">
+      <c r="B319" s="67" t="s">
         <v>950</v>
       </c>
       <c r="C319" s="39" t="s">
@@ -35780,7 +35985,7 @@
       <c r="A320" s="1">
         <v>134</v>
       </c>
-      <c r="B320" s="67" t="s">
+      <c r="B320" s="66" t="s">
         <v>974</v>
       </c>
       <c r="C320" s="2" t="s">
@@ -35873,7 +36078,7 @@
       <c r="A321" s="50">
         <v>147</v>
       </c>
-      <c r="B321" s="69" t="s">
+      <c r="B321" s="68" t="s">
         <v>1052</v>
       </c>
       <c r="C321" s="52" t="s">
@@ -35966,7 +36171,7 @@
       <c r="A322" s="50">
         <v>152</v>
       </c>
-      <c r="B322" s="69" t="s">
+      <c r="B322" s="68" t="s">
         <v>1082</v>
       </c>
       <c r="C322" s="52" t="s">
@@ -36059,7 +36264,7 @@
       <c r="A323" s="50">
         <v>154</v>
       </c>
-      <c r="B323" s="69" t="s">
+      <c r="B323" s="68" t="s">
         <v>1094</v>
       </c>
       <c r="C323" s="52" t="s">
@@ -36149,49 +36354,49 @@
       </c>
     </row>
     <row r="324" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A324" s="73">
+      <c r="A324" s="72">
         <v>156</v>
       </c>
-      <c r="B324" s="74" t="s">
+      <c r="B324" s="73" t="s">
         <v>1106</v>
       </c>
-      <c r="C324" s="75" t="s">
+      <c r="C324" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="D324" s="75" t="s">
+      <c r="D324" s="74" t="s">
         <v>313</v>
       </c>
-      <c r="E324" s="76">
+      <c r="E324" s="75">
         <v>43384.546051157406</v>
       </c>
-      <c r="F324" s="76">
+      <c r="F324" s="75">
         <v>43384.554243055558</v>
       </c>
-      <c r="G324" s="73">
+      <c r="G324" s="72">
         <v>8600</v>
       </c>
-      <c r="H324" s="75" t="s">
+      <c r="H324" s="74" t="s">
         <v>379</v>
       </c>
-      <c r="I324" s="73">
-        <v>7</v>
-      </c>
-      <c r="J324" s="75" t="s">
+      <c r="I324" s="72">
+        <v>7</v>
+      </c>
+      <c r="J324" s="74" t="s">
         <v>1107</v>
       </c>
-      <c r="K324" s="75" t="s">
+      <c r="K324" s="74" t="s">
         <v>1108</v>
       </c>
-      <c r="L324" s="75" t="s">
+      <c r="L324" s="74" t="s">
         <v>1109</v>
       </c>
-      <c r="M324" s="75" t="s">
+      <c r="M324" s="74" t="s">
         <v>1110</v>
       </c>
-      <c r="N324" s="75" t="s">
+      <c r="N324" s="74" t="s">
         <v>1111</v>
       </c>
-      <c r="O324" s="77"/>
+      <c r="O324" s="76"/>
       <c r="P324" s="27">
         <v>6</v>
       </c>
@@ -36245,7 +36450,7 @@
       <c r="A325" s="50">
         <v>164</v>
       </c>
-      <c r="B325" s="69" t="s">
+      <c r="B325" s="68" t="s">
         <v>1154</v>
       </c>
       <c r="C325" s="52" t="s">
@@ -36338,7 +36543,7 @@
       <c r="A326" s="50">
         <v>167</v>
       </c>
-      <c r="B326" s="69" t="s">
+      <c r="B326" s="68" t="s">
         <v>1172</v>
       </c>
       <c r="C326" s="52" t="s">
@@ -36431,7 +36636,7 @@
       <c r="A327" s="50">
         <v>174</v>
       </c>
-      <c r="B327" s="69" t="s">
+      <c r="B327" s="68" t="s">
         <v>1214</v>
       </c>
       <c r="C327" s="52" t="s">
@@ -36524,7 +36729,7 @@
       <c r="A328" s="50">
         <v>180</v>
       </c>
-      <c r="B328" s="69" t="s">
+      <c r="B328" s="68" t="s">
         <v>1250</v>
       </c>
       <c r="C328" s="52" t="s">
@@ -36617,7 +36822,7 @@
       <c r="A329" s="50">
         <v>182</v>
       </c>
-      <c r="B329" s="69" t="s">
+      <c r="B329" s="68" t="s">
         <v>1262</v>
       </c>
       <c r="C329" s="52" t="s">
@@ -36710,7 +36915,7 @@
       <c r="A330" s="50">
         <v>189</v>
       </c>
-      <c r="B330" s="69" t="s">
+      <c r="B330" s="68" t="s">
         <v>1304</v>
       </c>
       <c r="C330" s="52" t="s">
@@ -36803,7 +37008,7 @@
       <c r="A331" s="50">
         <v>190</v>
       </c>
-      <c r="B331" s="69" t="s">
+      <c r="B331" s="68" t="s">
         <v>1310</v>
       </c>
       <c r="C331" s="52" t="s">
@@ -36896,7 +37101,7 @@
       <c r="A332" s="50">
         <v>193</v>
       </c>
-      <c r="B332" s="69" t="s">
+      <c r="B332" s="68" t="s">
         <v>1328</v>
       </c>
       <c r="C332" s="52" t="s">
@@ -36989,7 +37194,7 @@
       <c r="A333" s="1">
         <v>195</v>
       </c>
-      <c r="B333" s="67" t="s">
+      <c r="B333" s="66" t="s">
         <v>1340</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -37082,7 +37287,7 @@
       <c r="A334" s="50">
         <v>210</v>
       </c>
-      <c r="B334" s="69" t="s">
+      <c r="B334" s="68" t="s">
         <v>1430</v>
       </c>
       <c r="C334" s="52" t="s">
@@ -37175,7 +37380,7 @@
       <c r="A335" s="50">
         <v>212</v>
       </c>
-      <c r="B335" s="69" t="s">
+      <c r="B335" s="68" t="s">
         <v>1442</v>
       </c>
       <c r="C335" s="52" t="s">
@@ -37268,7 +37473,7 @@
       <c r="A336" s="50">
         <v>214</v>
       </c>
-      <c r="B336" s="69" t="s">
+      <c r="B336" s="68" t="s">
         <v>1454</v>
       </c>
       <c r="C336" s="52" t="s">
@@ -37361,7 +37566,7 @@
       <c r="A337" s="50">
         <v>221</v>
       </c>
-      <c r="B337" s="69" t="s">
+      <c r="B337" s="68" t="s">
         <v>1496</v>
       </c>
       <c r="C337" s="52" t="s">
@@ -37454,7 +37659,7 @@
       <c r="A338" s="50">
         <v>223</v>
       </c>
-      <c r="B338" s="69" t="s">
+      <c r="B338" s="68" t="s">
         <v>1508</v>
       </c>
       <c r="C338" s="52" t="s">
@@ -37547,7 +37752,7 @@
       <c r="A339" s="50">
         <v>225</v>
       </c>
-      <c r="B339" s="69" t="s">
+      <c r="B339" s="68" t="s">
         <v>1520</v>
       </c>
       <c r="C339" s="52" t="s">
@@ -37640,7 +37845,7 @@
       <c r="A340" s="50">
         <v>243</v>
       </c>
-      <c r="B340" s="69" t="s">
+      <c r="B340" s="68" t="s">
         <v>1628</v>
       </c>
       <c r="C340" s="52" t="s">
@@ -37733,7 +37938,7 @@
       <c r="A341" s="50">
         <v>251</v>
       </c>
-      <c r="B341" s="69" t="s">
+      <c r="B341" s="68" t="s">
         <v>1676</v>
       </c>
       <c r="C341" s="52" t="s">
@@ -37826,7 +38031,7 @@
       <c r="A342" s="1">
         <v>254</v>
       </c>
-      <c r="B342" s="67" t="s">
+      <c r="B342" s="66" t="s">
         <v>1692</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -37919,7 +38124,7 @@
       <c r="A343" s="50">
         <v>269</v>
       </c>
-      <c r="B343" s="69" t="s">
+      <c r="B343" s="68" t="s">
         <v>1782</v>
       </c>
       <c r="C343" s="52" t="s">
@@ -38012,7 +38217,7 @@
       <c r="A344" s="36">
         <v>272</v>
       </c>
-      <c r="B344" s="68" t="s">
+      <c r="B344" s="67" t="s">
         <v>1800</v>
       </c>
       <c r="C344" s="39" t="s">
@@ -38105,7 +38310,7 @@
       <c r="A345" s="50">
         <v>280</v>
       </c>
-      <c r="B345" s="69" t="s">
+      <c r="B345" s="68" t="s">
         <v>1848</v>
       </c>
       <c r="C345" s="52" t="s">
@@ -38198,7 +38403,7 @@
       <c r="A346" s="50">
         <v>283</v>
       </c>
-      <c r="B346" s="69" t="s">
+      <c r="B346" s="68" t="s">
         <v>1866</v>
       </c>
       <c r="C346" s="52" t="s">
@@ -38291,7 +38496,7 @@
       <c r="A347" s="50">
         <v>286</v>
       </c>
-      <c r="B347" s="69" t="s">
+      <c r="B347" s="68" t="s">
         <v>1884</v>
       </c>
       <c r="C347" s="52" t="s">
@@ -38384,7 +38589,7 @@
       <c r="A348" s="1">
         <v>288</v>
       </c>
-      <c r="B348" s="67" t="s">
+      <c r="B348" s="66" t="s">
         <v>1896</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -38477,7 +38682,7 @@
       <c r="A349" s="1">
         <v>298</v>
       </c>
-      <c r="B349" s="67" t="s">
+      <c r="B349" s="66" t="s">
         <v>1956</v>
       </c>
       <c r="C349" s="2" t="s">
@@ -38570,7 +38775,7 @@
       <c r="A350" s="50">
         <v>306</v>
       </c>
-      <c r="B350" s="69" t="s">
+      <c r="B350" s="68" t="s">
         <v>2004</v>
       </c>
       <c r="C350" s="52" t="s">
@@ -38663,7 +38868,7 @@
       <c r="A351" s="50">
         <v>307</v>
       </c>
-      <c r="B351" s="69" t="s">
+      <c r="B351" s="68" t="s">
         <v>2010</v>
       </c>
       <c r="C351" s="52" t="s">
@@ -38756,7 +38961,7 @@
       <c r="A352" s="50">
         <v>312</v>
       </c>
-      <c r="B352" s="69" t="s">
+      <c r="B352" s="68" t="s">
         <v>2040</v>
       </c>
       <c r="C352" s="52" t="s">
@@ -38849,7 +39054,7 @@
       <c r="A353" s="50">
         <v>313</v>
       </c>
-      <c r="B353" s="69" t="s">
+      <c r="B353" s="68" t="s">
         <v>2046</v>
       </c>
       <c r="C353" s="52" t="s">
@@ -38942,7 +39147,7 @@
       <c r="A354" s="50">
         <v>318</v>
       </c>
-      <c r="B354" s="69" t="s">
+      <c r="B354" s="68" t="s">
         <v>2076</v>
       </c>
       <c r="C354" s="52" t="s">
@@ -39035,7 +39240,7 @@
       <c r="A355" s="50">
         <v>323</v>
       </c>
-      <c r="B355" s="69" t="s">
+      <c r="B355" s="68" t="s">
         <v>2106</v>
       </c>
       <c r="C355" s="52" t="s">
@@ -39128,7 +39333,7 @@
       <c r="A356" s="1">
         <v>325</v>
       </c>
-      <c r="B356" s="67" t="s">
+      <c r="B356" s="66" t="s">
         <v>2118</v>
       </c>
       <c r="C356" s="2" t="s">
@@ -39221,7 +39426,7 @@
       <c r="A357" s="51">
         <v>339</v>
       </c>
-      <c r="B357" s="69" t="s">
+      <c r="B357" s="68" t="s">
         <v>2202</v>
       </c>
       <c r="C357" s="54" t="s">
@@ -39314,7 +39519,7 @@
       <c r="A358" s="37">
         <v>345</v>
       </c>
-      <c r="B358" s="68" t="s">
+      <c r="B358" s="67" t="s">
         <v>2238</v>
       </c>
       <c r="C358" s="41" t="s">
@@ -39353,7 +39558,7 @@
       <c r="N358" s="41" t="s">
         <v>2243</v>
       </c>
-      <c r="O358" s="79"/>
+      <c r="O358" s="78"/>
       <c r="P358" s="60">
         <v>1</v>
       </c>
@@ -39407,7 +39612,7 @@
       <c r="A359" s="51">
         <v>356</v>
       </c>
-      <c r="B359" s="69" t="s">
+      <c r="B359" s="68" t="s">
         <v>2304</v>
       </c>
       <c r="C359" s="54" t="s">
@@ -39500,7 +39705,7 @@
       <c r="A360" s="37">
         <v>359</v>
       </c>
-      <c r="B360" s="68" t="s">
+      <c r="B360" s="67" t="s">
         <v>2322</v>
       </c>
       <c r="C360" s="39" t="s">
@@ -39593,7 +39798,7 @@
       <c r="A361" s="51">
         <v>362</v>
       </c>
-      <c r="B361" s="69" t="s">
+      <c r="B361" s="68" t="s">
         <v>2340</v>
       </c>
       <c r="C361" s="62" t="s">
@@ -39686,7 +39891,7 @@
       <c r="A362" s="51">
         <v>364</v>
       </c>
-      <c r="B362" s="69" t="s">
+      <c r="B362" s="68" t="s">
         <v>2352</v>
       </c>
       <c r="C362" s="52" t="s">
@@ -39779,7 +39984,7 @@
       <c r="A363" s="51">
         <v>369</v>
       </c>
-      <c r="B363" s="69" t="s">
+      <c r="B363" s="68" t="s">
         <v>2382</v>
       </c>
       <c r="C363" s="52" t="s">
@@ -39872,7 +40077,7 @@
       <c r="A364" s="37">
         <v>372</v>
       </c>
-      <c r="B364" s="68" t="s">
+      <c r="B364" s="67" t="s">
         <v>2400</v>
       </c>
       <c r="C364" s="39" t="s">
@@ -40425,7 +40630,7 @@
       <c r="O372" s="35"/>
       <c r="P372" s="11"/>
       <c r="Q372" s="11"/>
-      <c r="R372" s="71"/>
+      <c r="R372" s="70"/>
       <c r="S372" s="11"/>
       <c r="T372" s="11"/>
       <c r="U372" s="11"/>

--- a/Resultados/ViajesCompleta.xlsx
+++ b/Resultados/ViajesCompleta.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williz/Desktop/ModelosED/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4193460D-BB57-7B46-9807-DF9FACC67ED7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEB0712-303D-C645-AB85-9664CE19AD0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AJ$400</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$AN$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3897" uniqueCount="2487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3908" uniqueCount="2491">
   <si>
     <t>IdViaje</t>
   </si>
@@ -7489,6 +7489,18 @@
   </si>
   <si>
     <t>Acc EC</t>
+  </si>
+  <si>
+    <t>LongAlt1</t>
+  </si>
+  <si>
+    <t>LongAlt2</t>
+  </si>
+  <si>
+    <t>LongAlt3</t>
+  </si>
+  <si>
+    <t>LongInd</t>
   </si>
 </sst>
 </file>
@@ -7959,11 +7971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1000"/>
+  <dimension ref="A1:AN1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG394" sqref="AG394"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AG302" sqref="AG302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -7971,9 +7983,9 @@
     <col min="1" max="1" width="7.1640625" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" customWidth="1"/>
     <col min="3" max="4" width="36.6640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="31.83203125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="6.1640625" hidden="1" customWidth="1"/>
     <col min="10" max="11" width="36.83203125" hidden="1" customWidth="1"/>
@@ -7990,7 +8002,7 @@
     <col min="31" max="31" width="12.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8099,8 +8111,20 @@
       <c r="AJ1" s="7" t="s">
         <v>2482</v>
       </c>
+      <c r="AK1" s="7" t="s">
+        <v>2487</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>2488</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>2489</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>2490</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:40">
       <c r="A2" s="36">
         <v>1</v>
       </c>
@@ -8204,8 +8228,11 @@
       <c r="AJ2" s="10">
         <v>1</v>
       </c>
+      <c r="AK2">
+        <v>0.25700000000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:40">
       <c r="A3" s="74">
         <v>2</v>
       </c>
@@ -8273,7 +8300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:40">
       <c r="A4" s="74">
         <v>3</v>
       </c>
@@ -8341,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:40">
       <c r="A5" s="74">
         <v>4</v>
       </c>
@@ -8409,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:40">
       <c r="A6" s="36">
         <v>5</v>
       </c>
@@ -8511,8 +8538,11 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="9"/>
+      <c r="AK6" s="6">
+        <v>2.4700000000000002</v>
+      </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:40">
       <c r="A7" s="36">
         <v>6</v>
       </c>
@@ -8615,7 +8645,7 @@
       </c>
       <c r="AJ7" s="9"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:40">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -8720,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:40">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -8825,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:40">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -8930,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:40">
       <c r="A11" s="36">
         <v>10</v>
       </c>
@@ -9036,7 +9066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:40">
       <c r="A12" s="36">
         <v>11</v>
       </c>
@@ -9141,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:40">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -9247,7 +9277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:40">
       <c r="A14" s="36">
         <v>13</v>
       </c>
@@ -9352,7 +9382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:40">
       <c r="A15" s="36">
         <v>14</v>
       </c>
@@ -9457,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:40">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -32902,6 +32932,15 @@
       <c r="AE244" s="7">
         <v>2</v>
       </c>
+      <c r="AF244" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG244" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH244" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ244" s="7">
         <v>1</v>
       </c>
@@ -32996,6 +33035,15 @@
         <v>0</v>
       </c>
       <c r="AE245" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF245" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG245" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH245" s="7">
         <v>0</v>
       </c>
       <c r="AJ245" s="7">
@@ -33186,6 +33234,15 @@
       <c r="AE247" s="7">
         <v>0</v>
       </c>
+      <c r="AF247" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG247" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH247" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ247" s="7">
         <v>1</v>
       </c>
@@ -33282,6 +33339,15 @@
       <c r="AE248" s="7">
         <v>0</v>
       </c>
+      <c r="AF248" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG248" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH248" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ248" s="7">
         <v>1</v>
       </c>
@@ -33378,6 +33444,15 @@
       <c r="AE249" s="7">
         <v>1</v>
       </c>
+      <c r="AF249" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG249" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH249" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ249" s="7">
         <v>1</v>
       </c>
@@ -33579,6 +33654,15 @@
       <c r="AE251" s="7">
         <v>0</v>
       </c>
+      <c r="AF251" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG251" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH251" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ251" s="7">
         <v>1</v>
       </c>
@@ -33673,6 +33757,15 @@
         <v>0</v>
       </c>
       <c r="AE252" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF252" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG252" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH252" s="7">
         <v>0</v>
       </c>
       <c r="AJ252" s="7">
@@ -33903,6 +33996,15 @@
       <c r="AE255" s="7">
         <v>1</v>
       </c>
+      <c r="AF255" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG255" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH255" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ255" s="7">
         <v>1</v>
       </c>
@@ -33999,6 +34101,15 @@
       <c r="AE256" s="7">
         <v>0</v>
       </c>
+      <c r="AF256" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG256" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH256" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ256" s="7">
         <v>1</v>
       </c>
@@ -34095,6 +34206,15 @@
       <c r="AE257" s="7">
         <v>0</v>
       </c>
+      <c r="AF257" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG257" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH257" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ257" s="7">
         <v>1</v>
       </c>
@@ -34191,6 +34311,15 @@
       <c r="AE258" s="7">
         <v>0</v>
       </c>
+      <c r="AF258" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG258" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH258" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ258" s="7">
         <v>1</v>
       </c>
@@ -34287,6 +34416,15 @@
       <c r="AE259" s="7">
         <v>1</v>
       </c>
+      <c r="AF259" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG259" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH259" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ259" s="7">
         <v>1</v>
       </c>
@@ -34383,6 +34521,15 @@
       <c r="AE260" s="7">
         <v>2</v>
       </c>
+      <c r="AF260" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG260" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH260" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ260" s="7">
         <v>1</v>
       </c>
@@ -34479,6 +34626,15 @@
       <c r="AE261" s="7">
         <v>2</v>
       </c>
+      <c r="AF261" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG261" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH261" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ261" s="7">
         <v>1</v>
       </c>
@@ -34575,6 +34731,15 @@
       <c r="AE262" s="7">
         <v>2</v>
       </c>
+      <c r="AF262" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG262" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH262" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ262" s="7">
         <v>1</v>
       </c>
@@ -34670,6 +34835,15 @@
       </c>
       <c r="AE263" s="7">
         <v>2</v>
+      </c>
+      <c r="AF263" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG263" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH263" s="7">
+        <v>0</v>
       </c>
       <c r="AJ263" s="7">
         <v>1</v>
@@ -34903,6 +35077,15 @@
       <c r="AE266" s="7">
         <v>2</v>
       </c>
+      <c r="AF266" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG266" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH266" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ266" s="7">
         <v>1</v>
       </c>
@@ -34999,6 +35182,15 @@
       <c r="AE267" s="7">
         <v>1</v>
       </c>
+      <c r="AF267" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG267" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH267" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ267" s="7">
         <v>1</v>
       </c>
@@ -35095,6 +35287,15 @@
       <c r="AE268" s="7">
         <v>1</v>
       </c>
+      <c r="AF268" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG268" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH268" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ268" s="7">
         <v>1</v>
       </c>
@@ -35191,6 +35392,15 @@
       <c r="AE269" s="7">
         <v>2</v>
       </c>
+      <c r="AF269" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG269" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH269" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ269" s="7">
         <v>1</v>
       </c>
@@ -35286,6 +35496,15 @@
       </c>
       <c r="AE270" s="7">
         <v>0</v>
+      </c>
+      <c r="AF270" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG270" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH270" s="7">
+        <v>1</v>
       </c>
       <c r="AJ270" s="7">
         <v>1</v>
@@ -35451,6 +35670,15 @@
       <c r="AE272" s="7">
         <v>0</v>
       </c>
+      <c r="AF272" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG272" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH272" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ272" s="7">
         <v>1</v>
       </c>
@@ -35547,6 +35775,15 @@
       <c r="AE273" s="7">
         <v>2</v>
       </c>
+      <c r="AF273" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG273" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH273" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ273" s="7">
         <v>1</v>
       </c>
@@ -35643,6 +35880,15 @@
       <c r="AE274" s="7">
         <v>2</v>
       </c>
+      <c r="AF274" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG274" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH274" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="AJ274" s="7">
         <v>1</v>
       </c>
@@ -35739,6 +35985,15 @@
       <c r="AE275" s="7">
         <v>1</v>
       </c>
+      <c r="AF275" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG275" s="7">
+        <v>2</v>
+      </c>
+      <c r="AH275" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ275" s="7">
         <v>1</v>
       </c>
@@ -35835,6 +36090,15 @@
       <c r="AE276" s="7">
         <v>1</v>
       </c>
+      <c r="AF276" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG276" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH276" s="7">
+        <v>2</v>
+      </c>
       <c r="AJ276" s="7">
         <v>1</v>
       </c>
@@ -35931,6 +36195,15 @@
       <c r="AE277" s="7">
         <v>1</v>
       </c>
+      <c r="AF277" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG277" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH277" s="7">
+        <v>2</v>
+      </c>
       <c r="AJ277" s="7">
         <v>1</v>
       </c>
@@ -36027,6 +36300,15 @@
       <c r="AE278" s="7">
         <v>1</v>
       </c>
+      <c r="AF278" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG278" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH278" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ278" s="7">
         <v>1</v>
       </c>
@@ -36123,6 +36405,15 @@
       <c r="AE279" s="7">
         <v>2</v>
       </c>
+      <c r="AF279" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG279" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH279" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ279" s="7">
         <v>1</v>
       </c>
@@ -36219,6 +36510,15 @@
       <c r="AE280" s="7">
         <v>1</v>
       </c>
+      <c r="AF280" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG280" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH280" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ280" s="7">
         <v>1</v>
       </c>
@@ -36315,6 +36615,15 @@
       <c r="AE281" s="7">
         <v>1</v>
       </c>
+      <c r="AF281" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG281" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH281" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ281" s="7">
         <v>1</v>
       </c>
@@ -36411,6 +36720,15 @@
       <c r="AE282" s="7">
         <v>0</v>
       </c>
+      <c r="AF282" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG282" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH282" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ282" s="7">
         <v>1</v>
       </c>
@@ -36507,6 +36825,15 @@
       <c r="AE283" s="7">
         <v>2</v>
       </c>
+      <c r="AF283" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG283" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH283" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ283" s="7">
         <v>1</v>
       </c>
@@ -36603,6 +36930,15 @@
       <c r="AE284" s="7">
         <v>1</v>
       </c>
+      <c r="AF284" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG284" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH284" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ284" s="7">
         <v>1</v>
       </c>
@@ -36699,6 +37035,15 @@
       <c r="AE285" s="7">
         <v>2</v>
       </c>
+      <c r="AF285" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG285" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH285" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ285" s="7">
         <v>1</v>
       </c>
@@ -36795,6 +37140,15 @@
       <c r="AE286" s="7">
         <v>2</v>
       </c>
+      <c r="AF286" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG286" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH286" t="s">
+        <v>199</v>
+      </c>
       <c r="AJ286" s="7">
         <v>1</v>
       </c>
@@ -36891,6 +37245,15 @@
       <c r="AE287" s="7">
         <v>0</v>
       </c>
+      <c r="AF287" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG287" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH287" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ287" s="7">
         <v>1</v>
       </c>
@@ -36987,6 +37350,15 @@
       <c r="AE288" s="7">
         <v>0</v>
       </c>
+      <c r="AF288" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG288" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH288" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ288" s="7">
         <v>1</v>
       </c>
@@ -37188,6 +37560,15 @@
       <c r="AE290" s="7">
         <v>1</v>
       </c>
+      <c r="AF290" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG290" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH290" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ290" s="7">
         <v>1</v>
       </c>
@@ -37284,6 +37665,15 @@
       <c r="AE291" s="7">
         <v>1</v>
       </c>
+      <c r="AF291" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH291" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="AJ291" s="7">
         <v>1</v>
       </c>
@@ -37380,6 +37770,15 @@
       <c r="AE292" s="7">
         <v>1</v>
       </c>
+      <c r="AF292" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG292" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH292" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ292" s="7">
         <v>1</v>
       </c>
@@ -37476,6 +37875,15 @@
       <c r="AE293" s="7">
         <v>1</v>
       </c>
+      <c r="AF293" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG293" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH293" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ293" s="7">
         <v>1</v>
       </c>
@@ -37571,6 +37979,15 @@
       </c>
       <c r="AE294" s="7">
         <v>0</v>
+      </c>
+      <c r="AF294" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH294" s="7" t="s">
+        <v>199</v>
       </c>
       <c r="AJ294" s="7">
         <v>1</v>
@@ -37736,6 +38153,15 @@
       <c r="AE296" s="7">
         <v>2</v>
       </c>
+      <c r="AF296" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG296" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH296" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ296" s="7">
         <v>1</v>
       </c>
@@ -37968,6 +38394,15 @@
       <c r="AE299" s="7">
         <v>1</v>
       </c>
+      <c r="AF299" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG299" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH299" s="7">
+        <v>1</v>
+      </c>
       <c r="AJ299" s="7">
         <v>1</v>
       </c>
@@ -38064,6 +38499,15 @@
       <c r="AE300" s="7">
         <v>2</v>
       </c>
+      <c r="AF300" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG300" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH300" s="7">
+        <v>0</v>
+      </c>
       <c r="AJ300" s="7">
         <v>1</v>
       </c>
@@ -38161,13 +38605,13 @@
         <v>2</v>
       </c>
       <c r="AF301" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG301" s="6">
         <v>0</v>
       </c>
       <c r="AH301" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ301" s="6">
         <v>1</v>
@@ -47823,11 +48267,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:AJ400" xr:uid="{FD6D0349-9194-DD4B-A108-98CFB2CC1692}">
-    <sortState ref="A2:AJ400">
-      <sortCondition ref="A1:A400"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AN1" xr:uid="{DE2D84D7-484B-3A47-887F-433682E04AB1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
